--- a/diploms/hod-back/_Resources/Export/Кадровая справка направления №11016.xlsx
+++ b/diploms/hod-back/_Resources/Export/Кадровая справка направления №11016.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Справка</x:t>
   </x:si>
@@ -304,10 +304,10 @@
     <x:t>Социология и политология</x:t>
   </x:si>
   <x:si>
-    <x:t>Игнатенко Татьяна Сергеевна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Должность-старший преподаватель,канд. наук,&lt;Не указано&gt;</x:t>
+    <x:t>Прилюдько Ирина Александровна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Должность-заведующий кафедрой,канд. наук,доцент</x:t>
   </x:si>
   <x:si>
     <x:t>Физическая культура и спорт</x:t>
@@ -319,25 +319,76 @@
     <x:t>Информационные технологии</x:t>
   </x:si>
   <x:si>
+    <x:t>Мобильные разработки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Теория автоматов, языков и вычислений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Управление проектами в сфере IT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кунцев Виталий Евгеньевич</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Объектные методы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Верификация и аттестация информационных систем</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Хозяинова Татьяна Вадимовна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ученная степень отсутствует,&lt;Не указано&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Архитектура информационных систем</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Методы и средства проектирования информационных систем и технологий</x:t>
+  </x:si>
+  <x:si>
     <x:t>Инструментальные средства информационных систем</x:t>
   </x:si>
   <x:si>
-    <x:t>Мобильные разработки</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Теория автоматов, языков и вычислений</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Управление проектами в сфере IT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кунцев Виталий Евгеньевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Объектные методы</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Верификация и аттестация информационных систем</x:t>
+    <x:t>Куделин Артем Георгиевич</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Надёжность и качество информационных систем</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Теория информации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кобрунов Александр Иванович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Общая теория систем и системный анализ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Семериков Александр Вениаминович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Моделирование экономических процессов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Алгоритмы численных методов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Имитационное моделирование</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Теоретические основы поддержки принятия решений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Программные платформы автоматизации предприятия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Корпоративные информационные системы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Основы библиотечно-информационной культуры</x:t>
   </x:si>
   <x:si>
     <x:t>Григорьев Николай Ильич</x:t>
@@ -346,54 +397,9 @@
     <x:t>Должность-ассистент,ученная степень не указана,ученное звание не указано</x:t>
   </x:si>
   <x:si>
-    <x:t>Архитектура информационных систем</x:t>
-  </x:si>
-  <x:si>
     <x:t>Технологии программирования</x:t>
   </x:si>
   <x:si>
-    <x:t>Методы и средства проектирования информационных систем и технологий</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Куделин Артем Георгиевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Надёжность и качество информационных систем</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Теория информации</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кобрунов Александр Иванович</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Общая теория систем и системный анализ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Семериков Александр Вениаминович</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Моделирование экономических процессов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Алгоритмы численных методов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Имитационное моделирование</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Теоретические основы поддержки принятия решений</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Программные платформы автоматизации предприятия</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Корпоративные информационные системы</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Основы библиотечно-информационной культуры</x:t>
-  </x:si>
-  <x:si>
     <x:t>Корабельников Владислав Аркадьевич</x:t>
   </x:si>
   <x:si>
@@ -433,7 +439,7 @@
     <x:t>Показатель соответствия (несоответствия)</x:t>
   </x:si>
   <x:si>
-    <x:t>п. 7.2.2</x:t>
+    <x:t>п. 4.4.3</x:t>
   </x:si>
   <x:si>
     <x:t>Доля научно-педагогических работников (в приведенных к целочисленным значениям ставок), имеющих образование, соответствующее профилю преподаваемой дисциплины (модуля), в общем числе научно-педагогических работников, реализующих программу бакалавриата</x:t>
@@ -442,7 +448,7 @@
     <x:t>не менее 70 процент</x:t>
   </x:si>
   <x:si>
-    <x:t>п. 7.2.3</x:t>
+    <x:t>п. 4.4.5</x:t>
   </x:si>
   <x:si>
     <x:t>Доля научно-педагогических работников (в приведенных к целочисленным значениям ставок), имеющих ученую степень (в том числе ученую степень, присвоенную за рубежом и признаваемую в Российской Федерации) и (или) ученое звание (в том числе ученое звание, полученное за рубежом и признаваемое в Российской Федерации), в общем числе научно-педагогических работников, реализующих программу бакалавриата</x:t>
@@ -451,7 +457,7 @@
     <x:t>не менее 50 процент</x:t>
   </x:si>
   <x:si>
-    <x:t>п. 7.2.4</x:t>
+    <x:t>п. 4.4.4</x:t>
   </x:si>
   <x:si>
     <x:t>Доля работников (в приведенных к целочисленным значениям ставок) из числа руководителей и работников организаций, деятельность которых связана с направленностью (профилем) реализуемой программы бакалавриата (имеющих стаж работы в данной профессиональной области не менее 3 лет) в общем числе работников, реализующих программу бакалавриата</x:t>
@@ -1368,7 +1374,7 @@
         <x:f>N9+N9</x:f>
       </x:c>
       <x:c r="I9" s="26">
-        <x:f>O9+O9</x:f>
+        <x:f>O9</x:f>
       </x:c>
       <x:c r="J9" s="26" t="n">
         <x:v>0</x:v>
@@ -1416,7 +1422,7 @@
         <x:f>N10+N10</x:f>
       </x:c>
       <x:c r="I10" s="26">
-        <x:f>O10+O10</x:f>
+        <x:f>O10</x:f>
       </x:c>
       <x:c r="J10" s="26" t="n">
         <x:v>120</x:v>
@@ -1464,7 +1470,7 @@
         <x:f>N11+N11</x:f>
       </x:c>
       <x:c r="I11" s="26">
-        <x:f>O11+O11</x:f>
+        <x:f>O11</x:f>
       </x:c>
       <x:c r="J11" s="26" t="n">
         <x:v>72</x:v>
@@ -1512,7 +1518,7 @@
         <x:f>N12+N13+N13</x:f>
       </x:c>
       <x:c r="I12" s="26">
-        <x:f>O12+O13+O13</x:f>
+        <x:f>O12+O13</x:f>
       </x:c>
       <x:c r="J12" s="26" t="n">
         <x:v>30</x:v>
@@ -1592,7 +1598,7 @@
         <x:f>N14+N14</x:f>
       </x:c>
       <x:c r="I14" s="26">
-        <x:f>O14+O14</x:f>
+        <x:f>O14</x:f>
       </x:c>
       <x:c r="J14" s="26" t="n">
         <x:v>14</x:v>
@@ -1640,7 +1646,7 @@
         <x:f>N15+N15</x:f>
       </x:c>
       <x:c r="I15" s="26">
-        <x:f>O15+O15</x:f>
+        <x:f>O15</x:f>
       </x:c>
       <x:c r="J15" s="26" t="n">
         <x:v>72</x:v>
@@ -1688,7 +1694,7 @@
         <x:f>N16+N17+N18+N19+N19</x:f>
       </x:c>
       <x:c r="I16" s="26">
-        <x:f>O16+O17+O18+O19+O19</x:f>
+        <x:f>O16+O17+O18+O19</x:f>
       </x:c>
       <x:c r="J16" s="26" t="n">
         <x:v>14</x:v>
@@ -1832,7 +1838,7 @@
         <x:f>N20+N21+N21</x:f>
       </x:c>
       <x:c r="I20" s="26">
-        <x:f>O20+O21+O21</x:f>
+        <x:f>O20+O21</x:f>
       </x:c>
       <x:c r="J20" s="26" t="n">
         <x:v>50</x:v>
@@ -1912,7 +1918,7 @@
         <x:f>N22+N22</x:f>
       </x:c>
       <x:c r="I22" s="26">
-        <x:f>O22+O22</x:f>
+        <x:f>O22</x:f>
       </x:c>
       <x:c r="J22" s="26" t="n">
         <x:v>42</x:v>
@@ -1960,7 +1966,7 @@
         <x:f>N23+N23</x:f>
       </x:c>
       <x:c r="I23" s="26">
-        <x:f>O23+O23</x:f>
+        <x:f>O23</x:f>
       </x:c>
       <x:c r="J23" s="26" t="n">
         <x:v>56</x:v>
@@ -2008,7 +2014,7 @@
         <x:f>N24+N24</x:f>
       </x:c>
       <x:c r="I24" s="26">
-        <x:f>O24+O24</x:f>
+        <x:f>O24</x:f>
       </x:c>
       <x:c r="J24" s="26" t="n">
         <x:v>20</x:v>
@@ -2056,7 +2062,7 @@
         <x:f>N25+N25</x:f>
       </x:c>
       <x:c r="I25" s="26">
-        <x:f>O25+O25</x:f>
+        <x:f>O25</x:f>
       </x:c>
       <x:c r="J25" s="26" t="n">
         <x:v>30</x:v>
@@ -2104,7 +2110,7 @@
         <x:f>N26+N27+N28+N28</x:f>
       </x:c>
       <x:c r="I26" s="26">
-        <x:f>O26+O27+O28+O28</x:f>
+        <x:f>O26+O27+O28</x:f>
       </x:c>
       <x:c r="J26" s="26" t="n">
         <x:v>20</x:v>
@@ -2216,7 +2222,7 @@
         <x:f>N29+N30+N31+N31</x:f>
       </x:c>
       <x:c r="I29" s="26">
-        <x:f>O29+O30+O31+O31</x:f>
+        <x:f>O29+O30+O31</x:f>
       </x:c>
       <x:c r="J29" s="26" t="n">
         <x:v>30</x:v>
@@ -2328,7 +2334,7 @@
         <x:f>N32+N32</x:f>
       </x:c>
       <x:c r="I32" s="26">
-        <x:f>O32+O32</x:f>
+        <x:f>O32</x:f>
       </x:c>
       <x:c r="J32" s="26" t="n">
         <x:v>18</x:v>
@@ -2376,7 +2382,7 @@
         <x:f>N33+N33</x:f>
       </x:c>
       <x:c r="I33" s="26">
-        <x:f>O33+O33</x:f>
+        <x:f>O33</x:f>
       </x:c>
       <x:c r="J33" s="26" t="n">
         <x:v>36</x:v>
@@ -2424,7 +2430,7 @@
         <x:f>N34+N35+N36+N37+N38+N39+N40+N41+N41</x:f>
       </x:c>
       <x:c r="I34" s="26">
-        <x:f>O34+O35+O36+O37+O38+O39+O40+O41+O41</x:f>
+        <x:f>O34+O35+O36+O37+O38+O39+O40+O41</x:f>
       </x:c>
       <x:c r="J34" s="26" t="n">
         <x:v>14</x:v>
@@ -2696,7 +2702,7 @@
         <x:f>N42+N42</x:f>
       </x:c>
       <x:c r="I42" s="26">
-        <x:f>O42+O42</x:f>
+        <x:f>O42</x:f>
       </x:c>
       <x:c r="J42" s="26" t="n">
         <x:v>36</x:v>
@@ -2744,7 +2750,7 @@
         <x:f>N43+N43</x:f>
       </x:c>
       <x:c r="I43" s="26">
-        <x:f>O43+O43</x:f>
+        <x:f>O43</x:f>
       </x:c>
       <x:c r="J43" s="26" t="n">
         <x:v>18</x:v>
@@ -2789,10 +2795,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H44" s="26">
-        <x:f>N44+N45+N46+N47+N48+N48</x:f>
+        <x:f>N44+N45+N46+N47+N47</x:f>
       </x:c>
       <x:c r="I44" s="26">
-        <x:f>O44+O45+O46+O47+O48+O48</x:f>
+        <x:f>O44+O45+O46+O47</x:f>
       </x:c>
       <x:c r="J44" s="26" t="n">
         <x:v>40</x:v>
@@ -2827,22 +2833,22 @@
       <x:c r="H45" s="26" t="s"/>
       <x:c r="I45" s="26" t="s"/>
       <x:c r="J45" s="26" t="n">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K45" s="26" t="n">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L45" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M45" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N45" s="26">
         <x:f>J45+K45+L45+M45</x:f>
       </x:c>
       <x:c r="O45" s="26" t="n">
-        <x:v>0.05</x:v>
+        <x:v>0.04</x:v>
       </x:c>
       <x:c r="P45" s="26" t="s"/>
     </x:row>
@@ -2859,10 +2865,10 @@
       <x:c r="H46" s="26" t="s"/>
       <x:c r="I46" s="26" t="s"/>
       <x:c r="J46" s="26" t="n">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K46" s="26" t="n">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L46" s="26" t="n">
         <x:v>2</x:v>
@@ -2874,7 +2880,7 @@
         <x:f>J46+K46+L46+M46</x:f>
       </x:c>
       <x:c r="O46" s="26" t="n">
-        <x:v>0.04</x:v>
+        <x:v>0.03</x:v>
       </x:c>
       <x:c r="P46" s="26" t="s"/>
     </x:row>
@@ -2891,170 +2897,170 @@
       <x:c r="H47" s="26" t="s"/>
       <x:c r="I47" s="26" t="s"/>
       <x:c r="J47" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K47" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L47" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M47" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N47" s="26">
         <x:f>J47+K47+L47+M47</x:f>
       </x:c>
       <x:c r="O47" s="26" t="n">
-        <x:v>0.03</x:v>
+        <x:v>0.02</x:v>
       </x:c>
       <x:c r="P47" s="26" t="s"/>
     </x:row>
     <x:row r="48" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A48" s="26" t="s"/>
-      <x:c r="B48" s="26" t="s"/>
-      <x:c r="C48" s="26" t="s"/>
-      <x:c r="D48" s="26" t="s"/>
+      <x:c r="A48" s="26" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B48" s="26" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C48" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D48" s="26" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="E48" s="26" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F48" s="26" t="s"/>
-      <x:c r="G48" s="26" t="s"/>
-      <x:c r="H48" s="26" t="s"/>
-      <x:c r="I48" s="26" t="s"/>
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F48" s="26" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G48" s="26" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H48" s="26">
+        <x:f>N48+N49+N49</x:f>
+      </x:c>
+      <x:c r="I48" s="26">
+        <x:f>O48+O49</x:f>
+      </x:c>
       <x:c r="J48" s="26" t="n">
-        <x:v>7</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K48" s="26" t="n">
-        <x:v>7</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L48" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M48" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N48" s="26">
         <x:f>J48+K48+L48+M48</x:f>
       </x:c>
       <x:c r="O48" s="26" t="n">
-        <x:v>0.02</x:v>
+        <x:v>0.12</x:v>
       </x:c>
       <x:c r="P48" s="26" t="s"/>
     </x:row>
     <x:row r="49" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A49" s="26" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B49" s="26" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C49" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D49" s="26" t="s">
-        <x:v>32</x:v>
-      </x:c>
+      <x:c r="A49" s="26" t="s"/>
+      <x:c r="B49" s="26" t="s"/>
+      <x:c r="C49" s="26" t="s"/>
+      <x:c r="D49" s="26" t="s"/>
       <x:c r="E49" s="26" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="F49" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G49" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H49" s="26">
-        <x:f>N49+N50+N50</x:f>
-      </x:c>
-      <x:c r="I49" s="26">
-        <x:f>O49+O50+O50</x:f>
-      </x:c>
+      <x:c r="F49" s="26" t="s"/>
+      <x:c r="G49" s="26" t="s"/>
+      <x:c r="H49" s="26" t="s"/>
+      <x:c r="I49" s="26" t="s"/>
       <x:c r="J49" s="26" t="n">
-        <x:v>40</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K49" s="26" t="n">
-        <x:v>60</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L49" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M49" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N49" s="26">
         <x:f>J49+K49+L49+M49</x:f>
       </x:c>
       <x:c r="O49" s="26" t="n">
-        <x:v>0.12</x:v>
+        <x:v>0.02</x:v>
       </x:c>
       <x:c r="P49" s="26" t="s"/>
     </x:row>
     <x:row r="50" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A50" s="26" t="s"/>
-      <x:c r="B50" s="26" t="s"/>
-      <x:c r="C50" s="26" t="s"/>
-      <x:c r="D50" s="26" t="s"/>
+      <x:c r="A50" s="26" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B50" s="26" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C50" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D50" s="26" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="E50" s="26" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F50" s="26" t="s"/>
-      <x:c r="G50" s="26" t="s"/>
-      <x:c r="H50" s="26" t="s"/>
-      <x:c r="I50" s="26" t="s"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F50" s="26" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G50" s="26" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H50" s="26">
+        <x:f>N50+N51+N52+N52</x:f>
+      </x:c>
+      <x:c r="I50" s="26">
+        <x:f>O50+O51+O52</x:f>
+      </x:c>
       <x:c r="J50" s="26" t="n">
-        <x:v>10</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K50" s="26" t="n">
-        <x:v>10</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L50" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M50" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>2.2</x:v>
       </x:c>
       <x:c r="N50" s="26">
         <x:f>J50+K50+L50+M50</x:f>
       </x:c>
       <x:c r="O50" s="26" t="n">
-        <x:v>0.02</x:v>
+        <x:v>0.07</x:v>
       </x:c>
       <x:c r="P50" s="26" t="s"/>
     </x:row>
     <x:row r="51" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A51" s="26" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B51" s="26" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C51" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D51" s="26" t="s">
-        <x:v>95</x:v>
-      </x:c>
+      <x:c r="A51" s="26" t="s"/>
+      <x:c r="B51" s="26" t="s"/>
+      <x:c r="C51" s="26" t="s"/>
+      <x:c r="D51" s="26" t="s"/>
       <x:c r="E51" s="26" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="F51" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G51" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H51" s="26">
-        <x:f>N51+N52+N53+N53</x:f>
-      </x:c>
-      <x:c r="I51" s="26">
-        <x:f>O51+O52+O53+O53</x:f>
-      </x:c>
+      <x:c r="F51" s="26" t="s"/>
+      <x:c r="G51" s="26" t="s"/>
+      <x:c r="H51" s="26" t="s"/>
+      <x:c r="I51" s="26" t="s"/>
       <x:c r="J51" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K51" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="L51" s="26" t="n">
         <x:v>5</x:v>
@@ -3066,7 +3072,7 @@
         <x:f>J51+K51+L51+M51</x:f>
       </x:c>
       <x:c r="O51" s="26" t="n">
-        <x:v>0.07</x:v>
+        <x:v>0.09</x:v>
       </x:c>
       <x:c r="P51" s="26" t="s"/>
     </x:row>
@@ -3083,10 +3089,10 @@
       <x:c r="H52" s="26" t="s"/>
       <x:c r="I52" s="26" t="s"/>
       <x:c r="J52" s="26" t="n">
-        <x:v>40</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K52" s="26" t="n">
-        <x:v>40</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L52" s="26" t="n">
         <x:v>2</x:v>
@@ -3098,75 +3104,75 @@
         <x:f>J52+K52+L52+M52</x:f>
       </x:c>
       <x:c r="O52" s="26" t="n">
-        <x:v>0.09</x:v>
+        <x:v>0.05</x:v>
       </x:c>
       <x:c r="P52" s="26" t="s"/>
     </x:row>
     <x:row r="53" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A53" s="26" t="s"/>
-      <x:c r="B53" s="26" t="s"/>
-      <x:c r="C53" s="26" t="s"/>
-      <x:c r="D53" s="26" t="s"/>
+      <x:c r="A53" s="26" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B53" s="26" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C53" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D53" s="26" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="E53" s="26" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="F53" s="26" t="s"/>
-      <x:c r="G53" s="26" t="s"/>
-      <x:c r="H53" s="26" t="s"/>
-      <x:c r="I53" s="26" t="s"/>
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F53" s="26" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G53" s="26" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H53" s="26">
+        <x:f>N53+N54+N54</x:f>
+      </x:c>
+      <x:c r="I53" s="26">
+        <x:f>O53+O54</x:f>
+      </x:c>
       <x:c r="J53" s="26" t="n">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K53" s="26" t="n">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L53" s="26" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M53" s="26" t="n">
-        <x:v>2.2</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N53" s="26">
         <x:f>J53+K53+L53+M53</x:f>
       </x:c>
       <x:c r="O53" s="26" t="n">
-        <x:v>0.09</x:v>
+        <x:v>0.07</x:v>
       </x:c>
       <x:c r="P53" s="26" t="s"/>
     </x:row>
     <x:row r="54" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A54" s="26" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B54" s="26" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="C54" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D54" s="26" t="s">
-        <x:v>32</x:v>
-      </x:c>
+      <x:c r="A54" s="26" t="s"/>
+      <x:c r="B54" s="26" t="s"/>
+      <x:c r="C54" s="26" t="s"/>
+      <x:c r="D54" s="26" t="s"/>
       <x:c r="E54" s="26" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="F54" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G54" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H54" s="26">
-        <x:f>N54+N55+N55</x:f>
-      </x:c>
-      <x:c r="I54" s="26">
-        <x:f>O54+O55+O55</x:f>
-      </x:c>
+      <x:c r="F54" s="26" t="s"/>
+      <x:c r="G54" s="26" t="s"/>
+      <x:c r="H54" s="26" t="s"/>
+      <x:c r="I54" s="26" t="s"/>
       <x:c r="J54" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K54" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L54" s="26" t="n">
         <x:v>2</x:v>
@@ -3178,167 +3184,167 @@
         <x:f>J54+K54+L54+M54</x:f>
       </x:c>
       <x:c r="O54" s="26" t="n">
-        <x:v>0.07</x:v>
+        <x:v>0.06</x:v>
       </x:c>
       <x:c r="P54" s="26" t="s"/>
     </x:row>
     <x:row r="55" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A55" s="26" t="s"/>
-      <x:c r="B55" s="26" t="s"/>
-      <x:c r="C55" s="26" t="s"/>
-      <x:c r="D55" s="26" t="s"/>
+      <x:c r="A55" s="26" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B55" s="26" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C55" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D55" s="26" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="E55" s="26" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="F55" s="26" t="s"/>
-      <x:c r="G55" s="26" t="s"/>
-      <x:c r="H55" s="26" t="s"/>
-      <x:c r="I55" s="26" t="s"/>
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F55" s="26" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G55" s="26" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H55" s="26">
+        <x:f>N55+N56+N56</x:f>
+      </x:c>
+      <x:c r="I55" s="26">
+        <x:f>O55+O56</x:f>
+      </x:c>
       <x:c r="J55" s="26" t="n">
-        <x:v>36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K55" s="26" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L55" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M55" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>2.2</x:v>
       </x:c>
       <x:c r="N55" s="26">
         <x:f>J55+K55+L55+M55</x:f>
       </x:c>
       <x:c r="O55" s="26" t="n">
-        <x:v>0.06</x:v>
+        <x:v>0.01</x:v>
       </x:c>
       <x:c r="P55" s="26" t="s"/>
     </x:row>
     <x:row r="56" spans="1:27" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A56" s="26" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B56" s="26" t="s">
+      <x:c r="A56" s="26" t="s"/>
+      <x:c r="B56" s="26" t="s"/>
+      <x:c r="C56" s="26" t="s"/>
+      <x:c r="D56" s="26" t="s"/>
+      <x:c r="E56" s="26" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C56" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D56" s="26" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E56" s="26" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="F56" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G56" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H56" s="26">
-        <x:f>N56+N57+N57</x:f>
-      </x:c>
-      <x:c r="I56" s="26">
-        <x:f>O56+O57+O57</x:f>
-      </x:c>
+      <x:c r="F56" s="26" t="s"/>
+      <x:c r="G56" s="26" t="s"/>
+      <x:c r="H56" s="26" t="s"/>
+      <x:c r="I56" s="26" t="s"/>
       <x:c r="J56" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K56" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L56" s="26" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M56" s="26" t="n">
-        <x:v>2.2</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N56" s="26">
         <x:f>J56+K56+L56+M56</x:f>
       </x:c>
       <x:c r="O56" s="26" t="n">
-        <x:v>0.01</x:v>
+        <x:v>0.05</x:v>
       </x:c>
       <x:c r="P56" s="26" t="s"/>
     </x:row>
     <x:row r="57" spans="1:27" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A57" s="26" t="s"/>
-      <x:c r="B57" s="26" t="s"/>
-      <x:c r="C57" s="26" t="s"/>
-      <x:c r="D57" s="26" t="s"/>
+      <x:c r="A57" s="26" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B57" s="26" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C57" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D57" s="26" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="E57" s="26" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F57" s="26" t="s"/>
-      <x:c r="G57" s="26" t="s"/>
-      <x:c r="H57" s="26" t="s"/>
-      <x:c r="I57" s="26" t="s"/>
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F57" s="26" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G57" s="26" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H57" s="26">
+        <x:f>N57+N58+N59+N60+N61+N62+N63+N64+N64</x:f>
+      </x:c>
+      <x:c r="I57" s="26">
+        <x:f>O57+O58+O59+O60+O61+O62+O63+O64</x:f>
+      </x:c>
       <x:c r="J57" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K57" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L57" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M57" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N57" s="26">
         <x:f>J57+K57+L57+M57</x:f>
       </x:c>
       <x:c r="O57" s="26" t="n">
-        <x:v>0.05</x:v>
+        <x:v>0.02</x:v>
       </x:c>
       <x:c r="P57" s="26" t="s"/>
     </x:row>
     <x:row r="58" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A58" s="26" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B58" s="26" t="s">
+      <x:c r="A58" s="26" t="s"/>
+      <x:c r="B58" s="26" t="s"/>
+      <x:c r="C58" s="26" t="s"/>
+      <x:c r="D58" s="26" t="s"/>
+      <x:c r="E58" s="26" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C58" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D58" s="26" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E58" s="26" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="F58" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G58" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H58" s="26">
-        <x:f>N58+N59+N60+N61+N62+N63+N64+N65+N65</x:f>
-      </x:c>
-      <x:c r="I58" s="26">
-        <x:f>O58+O59+O60+O61+O62+O63+O64+O65+O65</x:f>
-      </x:c>
+      <x:c r="F58" s="26" t="s"/>
+      <x:c r="G58" s="26" t="s"/>
+      <x:c r="H58" s="26" t="s"/>
+      <x:c r="I58" s="26" t="s"/>
       <x:c r="J58" s="26" t="n">
-        <x:v>22</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K58" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L58" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M58" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N58" s="26">
         <x:f>J58+K58+L58+M58</x:f>
       </x:c>
       <x:c r="O58" s="26" t="n">
-        <x:v>0.02</x:v>
+        <x:v>0.06</x:v>
       </x:c>
       <x:c r="P58" s="26" t="s"/>
     </x:row>
@@ -3355,22 +3361,22 @@
       <x:c r="H59" s="26" t="s"/>
       <x:c r="I59" s="26" t="s"/>
       <x:c r="J59" s="26" t="n">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K59" s="26" t="n">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L59" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M59" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N59" s="26">
         <x:f>J59+K59+L59+M59</x:f>
       </x:c>
       <x:c r="O59" s="26" t="n">
-        <x:v>0.06</x:v>
+        <x:v>0.05</x:v>
       </x:c>
       <x:c r="P59" s="26" t="s"/>
     </x:row>
@@ -3419,10 +3425,10 @@
       <x:c r="H61" s="26" t="s"/>
       <x:c r="I61" s="26" t="s"/>
       <x:c r="J61" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K61" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L61" s="26" t="n">
         <x:v>2</x:v>
@@ -3451,10 +3457,10 @@
       <x:c r="H62" s="26" t="s"/>
       <x:c r="I62" s="26" t="s"/>
       <x:c r="J62" s="26" t="n">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K62" s="26" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L62" s="26" t="n">
         <x:v>2</x:v>
@@ -3486,19 +3492,19 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="K63" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L63" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M63" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>2.2</x:v>
       </x:c>
       <x:c r="N63" s="26">
         <x:f>J63+K63+L63+M63</x:f>
       </x:c>
       <x:c r="O63" s="26" t="n">
-        <x:v>0.05</x:v>
+        <x:v>0.07</x:v>
       </x:c>
       <x:c r="P63" s="26" t="s"/>
     </x:row>
@@ -3515,72 +3521,88 @@
       <x:c r="H64" s="26" t="s"/>
       <x:c r="I64" s="26" t="s"/>
       <x:c r="J64" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K64" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L64" s="26" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M64" s="26" t="n">
-        <x:v>2.2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N64" s="26">
         <x:f>J64+K64+L64+M64</x:f>
       </x:c>
       <x:c r="O64" s="26" t="n">
-        <x:v>0.07</x:v>
+        <x:v>0.01</x:v>
       </x:c>
       <x:c r="P64" s="26" t="s"/>
     </x:row>
     <x:row r="65" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A65" s="26" t="s"/>
-      <x:c r="B65" s="26" t="s"/>
-      <x:c r="C65" s="26" t="s"/>
-      <x:c r="D65" s="26" t="s"/>
+      <x:c r="A65" s="26" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B65" s="26" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C65" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D65" s="26" t="s">
+        <x:v>112</x:v>
+      </x:c>
       <x:c r="E65" s="26" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="F65" s="26" t="s"/>
-      <x:c r="G65" s="26" t="s"/>
-      <x:c r="H65" s="26" t="s"/>
-      <x:c r="I65" s="26" t="s"/>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="F65" s="26" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G65" s="26" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H65" s="26">
+        <x:f>N65+N65</x:f>
+      </x:c>
+      <x:c r="I65" s="26">
+        <x:f>O65</x:f>
+      </x:c>
       <x:c r="J65" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K65" s="26" t="n">
-        <x:v>6</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L65" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M65" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N65" s="26">
         <x:f>J65+K65+L65+M65</x:f>
       </x:c>
       <x:c r="O65" s="26" t="n">
-        <x:v>0.01</x:v>
+        <x:v>0.09</x:v>
       </x:c>
       <x:c r="P65" s="26" t="s"/>
     </x:row>
     <x:row r="66" spans="1:27" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A66" s="26" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B66" s="26" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C66" s="26" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D66" s="26" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E66" s="26" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F66" s="26" t="s">
         <x:v>24</x:v>
@@ -3592,7 +3614,7 @@
         <x:f>N66+N67+N67</x:f>
       </x:c>
       <x:c r="I66" s="26">
-        <x:f>O66+O67+O67</x:f>
+        <x:f>O66+O67</x:f>
       </x:c>
       <x:c r="J66" s="26" t="n">
         <x:v>14</x:v>
@@ -3620,7 +3642,7 @@
       <x:c r="C67" s="26" t="s"/>
       <x:c r="D67" s="26" t="s"/>
       <x:c r="E67" s="26" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F67" s="26" t="s"/>
       <x:c r="G67" s="26" t="s"/>
@@ -3648,10 +3670,10 @@
     </x:row>
     <x:row r="68" spans="1:27" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A68" s="26" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B68" s="26" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C68" s="26" t="s">
         <x:v>21</x:v>
@@ -3660,7 +3682,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E68" s="26" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F68" s="26" t="s">
         <x:v>24</x:v>
@@ -3672,7 +3694,7 @@
         <x:f>N68+N69+N69</x:f>
       </x:c>
       <x:c r="I68" s="26">
-        <x:f>O68+O69+O69</x:f>
+        <x:f>O68+O69</x:f>
       </x:c>
       <x:c r="J68" s="26" t="n">
         <x:v>30</x:v>
@@ -3700,7 +3722,7 @@
       <x:c r="C69" s="26" t="s"/>
       <x:c r="D69" s="26" t="s"/>
       <x:c r="E69" s="26" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F69" s="26" t="s"/>
       <x:c r="G69" s="26" t="s"/>
@@ -3746,10 +3768,10 @@
     </x:row>
     <x:row r="71" spans="1:27" customFormat="1" ht="204.75" customHeight="1">
       <x:c r="A71" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B71" s="28" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C71" s="6" t="s"/>
       <x:c r="D71" s="7" t="s"/>
@@ -3758,7 +3780,7 @@
       <x:c r="G71" s="7" t="s"/>
       <x:c r="H71" s="7" t="s"/>
       <x:c r="I71" s="13">
-        <x:f>I9+I10+I11+I12+I14+I15+I16+I20+I22+I23+I24+I25+I26+I29+I32+I33+I34+I42+I43+I44+I49+I51+I54+I56+I58+I66+I68</x:f>
+        <x:f>I9+I10+I11+I12+I14+I15+I16+I20+I22+I23+I24+I25+I26+I29+I32+I33+I34+I42+I43+I44+I48+I50+I53+I55+I57+I65+I66+I68</x:f>
       </x:c>
       <x:c r="J71" s="6" t="s"/>
       <x:c r="K71" s="6" t="s"/>
@@ -3774,18 +3796,18 @@
     <x:row r="74" spans="1:27" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A74" s="1" t="s"/>
       <x:c r="B74" s="9" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C74" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D74" s="9" t="s"/>
       <x:c r="E74" s="9" t="s"/>
       <x:c r="F74" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G74" s="9" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H74" s="9" t="s"/>
       <x:c r="I74" s="9" t="s"/>
@@ -3799,69 +3821,69 @@
     <x:row r="75" spans="1:27" customFormat="1" ht="140" customHeight="1">
       <x:c r="A75" s="1" t="s"/>
       <x:c r="B75" s="30" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C75" s="31" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D75" s="30" t="s"/>
       <x:c r="E75" s="30" t="s"/>
       <x:c r="F75" s="30" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G75" s="32" t="n">
-        <x:v>44</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H75" s="30" t="s"/>
       <x:c r="I75" s="30" t="s"/>
       <x:c r="J75" s="30">
-        <x:f>I10+I12+I20+I25+I26+I32+I33+I43+I49+I51+I58+I68</x:f>
+        <x:f>I9+I10+I11+I12+I14+I15+I16+I20+I22+I23+I24+I25+I26+I29+I32+I33+I34+I42+I43+I44+I48+I50+I53+I55+I57+I65+I66+I68</x:f>
       </x:c>
       <x:c r="P75" s="0" t="s"/>
     </x:row>
     <x:row r="76" spans="1:27" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A76" s="1" t="s"/>
       <x:c r="B76" s="30" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C76" s="31" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D76" s="30" t="s"/>
       <x:c r="E76" s="30" t="s"/>
       <x:c r="F76" s="30" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G76" s="32" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H76" s="30" t="s"/>
       <x:c r="I76" s="30" t="s"/>
       <x:c r="J76" s="30">
-        <x:f>I10+I11+I12+I14+I15+I22+I26+I29+I32+I34+I42+I43+I44+I49+I54+I56+I58</x:f>
+        <x:f>I10+I11+I12+I14+I15+I22+I26+I29+I32+I34+I42+I43+I44+I48+I53+I55+I57</x:f>
       </x:c>
       <x:c r="P76" s="0" t="s"/>
     </x:row>
     <x:row r="77" spans="1:27" customFormat="1" ht="140" customHeight="1">
       <x:c r="A77" s="1" t="s"/>
       <x:c r="B77" s="30" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C77" s="31" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D77" s="30" t="s"/>
       <x:c r="E77" s="30" t="s"/>
       <x:c r="F77" s="30" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G77" s="32" t="n">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H77" s="30" t="s"/>
       <x:c r="I77" s="30" t="s"/>
       <x:c r="J77" s="30">
-        <x:f>I29+I66</x:f>
+        <x:f>I29+I50+I66</x:f>
       </x:c>
       <x:c r="P77" s="0" t="s"/>
     </x:row>
@@ -4085,54 +4107,54 @@
     <x:mergeCell ref="G34:G41"/>
     <x:mergeCell ref="H34:H41"/>
     <x:mergeCell ref="I34:I41"/>
-    <x:mergeCell ref="A44:A48"/>
-    <x:mergeCell ref="B44:B48"/>
-    <x:mergeCell ref="C44:C48"/>
-    <x:mergeCell ref="D44:D48"/>
-    <x:mergeCell ref="F44:F48"/>
-    <x:mergeCell ref="G44:G48"/>
-    <x:mergeCell ref="H44:H48"/>
-    <x:mergeCell ref="I44:I48"/>
-    <x:mergeCell ref="A49:A50"/>
-    <x:mergeCell ref="B49:B50"/>
-    <x:mergeCell ref="C49:C50"/>
-    <x:mergeCell ref="D49:D50"/>
-    <x:mergeCell ref="F49:F50"/>
-    <x:mergeCell ref="G49:G50"/>
-    <x:mergeCell ref="H49:H50"/>
-    <x:mergeCell ref="I49:I50"/>
-    <x:mergeCell ref="A51:A53"/>
-    <x:mergeCell ref="B51:B53"/>
-    <x:mergeCell ref="C51:C53"/>
-    <x:mergeCell ref="D51:D53"/>
-    <x:mergeCell ref="F51:F53"/>
-    <x:mergeCell ref="G51:G53"/>
-    <x:mergeCell ref="H51:H53"/>
-    <x:mergeCell ref="I51:I53"/>
-    <x:mergeCell ref="A54:A55"/>
-    <x:mergeCell ref="B54:B55"/>
-    <x:mergeCell ref="C54:C55"/>
-    <x:mergeCell ref="D54:D55"/>
-    <x:mergeCell ref="F54:F55"/>
-    <x:mergeCell ref="G54:G55"/>
-    <x:mergeCell ref="H54:H55"/>
-    <x:mergeCell ref="I54:I55"/>
-    <x:mergeCell ref="A56:A57"/>
-    <x:mergeCell ref="B56:B57"/>
-    <x:mergeCell ref="C56:C57"/>
-    <x:mergeCell ref="D56:D57"/>
-    <x:mergeCell ref="F56:F57"/>
-    <x:mergeCell ref="G56:G57"/>
-    <x:mergeCell ref="H56:H57"/>
-    <x:mergeCell ref="I56:I57"/>
-    <x:mergeCell ref="A58:A65"/>
-    <x:mergeCell ref="B58:B65"/>
-    <x:mergeCell ref="C58:C65"/>
-    <x:mergeCell ref="D58:D65"/>
-    <x:mergeCell ref="F58:F65"/>
-    <x:mergeCell ref="G58:G65"/>
-    <x:mergeCell ref="H58:H65"/>
-    <x:mergeCell ref="I58:I65"/>
+    <x:mergeCell ref="A44:A47"/>
+    <x:mergeCell ref="B44:B47"/>
+    <x:mergeCell ref="C44:C47"/>
+    <x:mergeCell ref="D44:D47"/>
+    <x:mergeCell ref="F44:F47"/>
+    <x:mergeCell ref="G44:G47"/>
+    <x:mergeCell ref="H44:H47"/>
+    <x:mergeCell ref="I44:I47"/>
+    <x:mergeCell ref="A48:A49"/>
+    <x:mergeCell ref="B48:B49"/>
+    <x:mergeCell ref="C48:C49"/>
+    <x:mergeCell ref="D48:D49"/>
+    <x:mergeCell ref="F48:F49"/>
+    <x:mergeCell ref="G48:G49"/>
+    <x:mergeCell ref="H48:H49"/>
+    <x:mergeCell ref="I48:I49"/>
+    <x:mergeCell ref="A50:A52"/>
+    <x:mergeCell ref="B50:B52"/>
+    <x:mergeCell ref="C50:C52"/>
+    <x:mergeCell ref="D50:D52"/>
+    <x:mergeCell ref="F50:F52"/>
+    <x:mergeCell ref="G50:G52"/>
+    <x:mergeCell ref="H50:H52"/>
+    <x:mergeCell ref="I50:I52"/>
+    <x:mergeCell ref="A53:A54"/>
+    <x:mergeCell ref="B53:B54"/>
+    <x:mergeCell ref="C53:C54"/>
+    <x:mergeCell ref="D53:D54"/>
+    <x:mergeCell ref="F53:F54"/>
+    <x:mergeCell ref="G53:G54"/>
+    <x:mergeCell ref="H53:H54"/>
+    <x:mergeCell ref="I53:I54"/>
+    <x:mergeCell ref="A55:A56"/>
+    <x:mergeCell ref="B55:B56"/>
+    <x:mergeCell ref="C55:C56"/>
+    <x:mergeCell ref="D55:D56"/>
+    <x:mergeCell ref="F55:F56"/>
+    <x:mergeCell ref="G55:G56"/>
+    <x:mergeCell ref="H55:H56"/>
+    <x:mergeCell ref="I55:I56"/>
+    <x:mergeCell ref="A57:A64"/>
+    <x:mergeCell ref="B57:B64"/>
+    <x:mergeCell ref="C57:C64"/>
+    <x:mergeCell ref="D57:D64"/>
+    <x:mergeCell ref="F57:F64"/>
+    <x:mergeCell ref="G57:G64"/>
+    <x:mergeCell ref="H57:H64"/>
+    <x:mergeCell ref="I57:I64"/>
     <x:mergeCell ref="A66:A67"/>
     <x:mergeCell ref="B66:B67"/>
     <x:mergeCell ref="C66:C67"/>
@@ -4231,7 +4253,7 @@
     </x:row>
     <x:row r="3" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A3" s="25" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B3" s="25" t="s"/>
       <x:c r="C3" s="25" t="s"/>
@@ -4250,7 +4272,7 @@
     </x:row>
     <x:row r="4" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="25" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B4" s="25" t="s"/>
       <x:c r="C4" s="25" t="s"/>
@@ -4275,7 +4297,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
         <x:v>7</x:v>
@@ -4381,10 +4403,10 @@
     </x:row>
     <x:row r="10" spans="1:27" customFormat="1" ht="204.75" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A10" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B10" s="28" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s"/>
       <x:c r="D10" s="7" t="s"/>
@@ -4393,7 +4415,7 @@
       <x:c r="G10" s="7" t="s"/>
       <x:c r="H10" s="7" t="s"/>
       <x:c r="I10" s="13" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="J10" s="6" t="s"/>
       <x:c r="K10" s="6" t="s"/>
@@ -4409,18 +4431,18 @@
     <x:row r="13" spans="1:27" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A13" s="1" t="s"/>
       <x:c r="B13" s="9" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C13" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D13" s="9" t="s"/>
       <x:c r="E13" s="9" t="s"/>
       <x:c r="F13" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G13" s="9" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H13" s="9" t="s"/>
       <x:c r="I13" s="9" t="s"/>

--- a/diploms/hod-back/_Resources/Export/Кадровая справка направления №11016.xlsx
+++ b/diploms/hod-back/_Resources/Export/Кадровая справка направления №11016.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <x:si>
     <x:t>Справка</x:t>
   </x:si>
@@ -130,10 +130,10 @@
     <x:t>Иностранный язык</x:t>
   </x:si>
   <x:si>
-    <x:t>Уровень образования (нет данных)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дополнительное образование (нет данных)</x:t>
+    <x:t>Высшее профессиональное, специальность Английский и немецкий языки, учитель английского и немецкого языков</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400025816 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
   </x:si>
   <x:si>
     <x:t>Мотрюк Екатерина Николаевна</x:t>
@@ -145,12 +145,24 @@
     <x:t>Математика</x:t>
   </x:si>
   <x:si>
+    <x:t>Высшее профессиональное, специальность Прикладная математика, математика. преподаватель</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400019630 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
     <x:t>Богданов Николай Павлович</x:t>
   </x:si>
   <x:si>
     <x:t>Физика</x:t>
   </x:si>
   <x:si>
+    <x:t>Высшее профессиональное, специальность Физика, физика. преподаватель физики</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400018492 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
     <x:t>Солдатенкова Ольга Вячеславовна</x:t>
   </x:si>
   <x:si>
@@ -160,6 +172,12 @@
     <x:t>История</x:t>
   </x:si>
   <x:si>
+    <x:t>Высшее профессиональное, специальность Культурология, культуролог, историк мировой культуры</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400013231 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
     <x:t>Культурология</x:t>
   </x:si>
   <x:si>
@@ -169,6 +187,12 @@
     <x:t>Экология</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Высшее профессиональное, специальность Биология, биолог преподаватель биологии и химии. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400014098 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
     <x:t>Кудряшова Ольга Михайловна</x:t>
   </x:si>
   <x:si>
@@ -178,12 +202,24 @@
     <x:t>Информатика</x:t>
   </x:si>
   <x:si>
+    <x:t>Высшее профессиональное, специальность Вычислительные машины, комплексы, системы и сети, инженер-системотехник</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400014586 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
     <x:t>Базарова Ирина Александровна</x:t>
   </x:si>
   <x:si>
     <x:t>Программные средства общего назначения</x:t>
   </x:si>
   <x:si>
+    <x:t>Высшее профессиональное,  специальность Автоматизация и комплексная механизация в строительстве, инженер-электромеханик</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400036555 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
     <x:t>Основы схемотехники</x:t>
   </x:si>
   <x:si>
@@ -199,93 +235,273 @@
     <x:t>Теория алгоритмов</x:t>
   </x:si>
   <x:si>
+    <x:t>Высшее профессиональное, специальность Математика, учитель математики и физики</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400016607 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Флоря Василий Михайлович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Должность-профессор,д-р наук,профессор</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Философия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Высшее профессиональное, специальность Научный коммунизм, преподаватель научного коммунизма</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400035509 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кожевникова Полина Валерьевна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Инженерная и компьютерная графика</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Высшее профессиональное, специальность Информационные системы и технологии, инженер. Аспирантура, специальность Информатика и вычислительная техника, исследователь, преподаватель-исследователь</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400032467 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сангаджиева Валентина Бадмаевна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Русский язык и культура речи</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Высшее профессиональное, специальность Калмыцкий язык и литература, русский язык и литература, филолог, преподаватель калмыцкого языка и литературы, русского языка и литературы</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400014487 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Грунской Тарас Валерьевич</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Безопасность жизнедеятельности</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Высшее профессиональное,  специальность Безопасность технических процессов и производств, инженер. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400032318 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Гатин Герман Николаевич</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Математическая логика</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Высшее профессиональное, специальность Геофизические методы поисков и разведки месторождений полезных ископаемых, горный инженер-геофизик</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400017887 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дискретная математика и численные методы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Приложение теории чисел</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Григорьевых Андрей Викторович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сети ЭВМ и телекоммуникации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Высшее профессиональное, специальность Информационные системы и технологии, инженер</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400026715 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Управление данными</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Хранилища данных и системы бизнес-аналитики</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Павловская Алла Васильевна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Должность-профессор,канд. наук,профессор</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Внутрифирменное планирование</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Высшее профессиональное, специальность Экономика и организация нефтяной и газовой промышленности, инженер-экономист</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400011033 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Андрухова Ольга Витальевна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Экономика в ИТ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Высшее профессиональное, специальность Экономика и управление на предприятии (ТЭК), экономист-менеджер. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400026314 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дорогобед Алёна Николаевна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Должность-заведующий кафедрой,канд. наук,&lt;Не указано&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400032761 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Введение в специальность</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Надёжность и качество информационных систем</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Информационная безопасность</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Интеллектуальные системы и технологии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проектирование человеко-машинных интерфейсов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Бабыкина Наталья Николаевна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Социология и политология</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Высшее профессиональное, специальность Философия, философ, преподаватель философии</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400020679 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Игнатенко Татьяна Сергеевна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Должность-старший преподаватель,канд. наук,&lt;Не указано&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Физическая культура и спорт</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Высшее, специальность Физкультура и спорт, преподаватель тренер по волейболу</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400032072 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Рочев Константин Васильевич</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Информационные технологии</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400025787 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Мобильные разработки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кунцев Виталий Евгеньевич</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Объектные методы</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400017589 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Верификация и аттестация информационных систем</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Григорьев Николай Ильич</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Должность-ассистент,ученная степень не указана,ученное звание не указано</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Архитектура информационных систем</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400018399 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Технологии программирования</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Семериков Александр Вениаминович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Высшее профессиональное, специальность Машины и оборудование нефтяных и газовых промыслов, инженер-механик</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Удостоверение о повышении квалификации № 110400037098 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Моделирование экономических процессов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Методы и средства проектирования информационных систем и технологий</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Основы теории управления</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Инструментальные средства информационных систем</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Алгоритмы численных методов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Имитационное моделирование</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Теоретические основы поддержки принятия решений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Теория автоматов, языков и вычислений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Теория информации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Программные платформы автоматизации предприятия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Автоматизированные системы управления технологическими процессами</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Корпоративные информационные системы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Программная инженерия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Объектно-ориентированное программирование на Java</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Общая теория систем и системный анализ</x:t>
+  </x:si>
+  <x:si>
     <x:t>учебная  (практика по получению первичных профессиональных умений и навыков, в том числе первичных умений и навыков научно-исследовательской деятельности)</x:t>
   </x:si>
   <x:si>
-    <x:t>Флоря Василий Михайлович</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Должность-профессор,д-р наук,профессор</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Философия</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кожевникова Полина Валерьевна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Инженерная и компьютерная графика</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сангаджиева Валентина Бадмаевна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Русский язык и культура речи</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Грунской Тарас Валерьевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Безопасность жизнедеятельности</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Гатин Герман Николаевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Математическая логика</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дискретная математика и численные методы</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Приложение теории чисел</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Григорьевых Андрей Викторович</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сети ЭВМ и телекоммуникации</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Управление данными</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Хранилища данных и системы бизнес-аналитики</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Павловская Алла Васильевна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Должность-профессор,канд. наук,профессор</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Внутрифирменное планирование</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Андрухова Ольга Витальевна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Экономика в ИТ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дорогобед Алёна Николаевна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Должность-заведующий кафедрой,канд. наук,&lt;Не указано&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Введение в специальность</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Информационная безопасность</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Интеллектуальные системы и технологии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проектирование человеко-машинных интерфейсов</x:t>
-  </x:si>
-  <x:si>
     <x:t>производственная (практика по получению профессиональных умений и опыта профессиональной деятельности)</x:t>
   </x:si>
   <x:si>
@@ -298,127 +514,10 @@
     <x:t>Защита выпускной квалификационной работы, включая подготовку к процедуре защиты и процедуру защиты</x:t>
   </x:si>
   <x:si>
-    <x:t>Бабыкина Наталья Николаевна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Социология и политология</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Прилюдько Ирина Александровна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Должность-заведующий кафедрой,канд. наук,доцент</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Физическая культура и спорт</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Рочев Константин Васильевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Информационные технологии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Мобильные разработки</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Теория автоматов, языков и вычислений</x:t>
+    <x:t>Основы библиотечно-информационной культуры</x:t>
   </x:si>
   <x:si>
     <x:t>Управление проектами в сфере IT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кунцев Виталий Евгеньевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Объектные методы</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Верификация и аттестация информационных систем</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Хозяинова Татьяна Вадимовна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ученная степень отсутствует,&lt;Не указано&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Архитектура информационных систем</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Методы и средства проектирования информационных систем и технологий</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Инструментальные средства информационных систем</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Куделин Артем Георгиевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Надёжность и качество информационных систем</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Теория информации</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кобрунов Александр Иванович</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Общая теория систем и системный анализ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Семериков Александр Вениаминович</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Моделирование экономических процессов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Алгоритмы численных методов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Имитационное моделирование</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Теоретические основы поддержки принятия решений</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Программные платформы автоматизации предприятия</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Корпоративные информационные системы</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Основы библиотечно-информационной культуры</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Григорьев Николай Ильич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Должность-ассистент,ученная степень не указана,ученное звание не указано</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Технологии программирования</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Корабельников Владислав Аркадьевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Должность-,ученная степень не указана,ученное звание не указано</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Основы теории управления</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Автоматизированные системы управления технологическими процессами</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Урусофф Николас </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Программная инженерия</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Объектно-ориентированное программирование на Java</x:t>
   </x:si>
   <x:si>
     <x:t>*</x:t>
@@ -1413,10 +1512,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F10" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G10" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H10" s="26">
         <x:f>N10+N10</x:f>
@@ -1449,7 +1548,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B11" s="26" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="26" t="s">
         <x:v>21</x:v>
@@ -1458,13 +1557,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E11" s="26" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F11" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G11" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H11" s="26">
         <x:f>N11+N11</x:f>
@@ -1497,22 +1596,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B12" s="26" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="26" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D12" s="26" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="26" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F12" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G12" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H12" s="26">
         <x:f>N12+N13+N13</x:f>
@@ -1546,7 +1645,7 @@
       <x:c r="C13" s="26" t="s"/>
       <x:c r="D13" s="26" t="s"/>
       <x:c r="E13" s="26" t="s">
-        <x:v>34</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F13" s="26" t="s"/>
       <x:c r="G13" s="26" t="s"/>
@@ -1577,7 +1676,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B14" s="26" t="s">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="26" t="s">
         <x:v>21</x:v>
@@ -1586,13 +1685,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E14" s="26" t="s">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F14" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G14" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H14" s="26">
         <x:f>N14+N14</x:f>
@@ -1625,22 +1724,22 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B15" s="26" t="s">
-        <x:v>37</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C15" s="26" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D15" s="26" t="s">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="26" t="s">
-        <x:v>39</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F15" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G15" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H15" s="26">
         <x:f>N15+N15</x:f>
@@ -1673,22 +1772,22 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B16" s="26" t="s">
-        <x:v>40</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C16" s="26" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D16" s="26" t="s">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E16" s="26" t="s">
-        <x:v>41</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F16" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G16" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H16" s="26">
         <x:f>N16+N17+N18+N19+N19</x:f>
@@ -1722,7 +1821,7 @@
       <x:c r="C17" s="26" t="s"/>
       <x:c r="D17" s="26" t="s"/>
       <x:c r="E17" s="26" t="s">
-        <x:v>42</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F17" s="26" t="s"/>
       <x:c r="G17" s="26" t="s"/>
@@ -1754,29 +1853,29 @@
       <x:c r="C18" s="26" t="s"/>
       <x:c r="D18" s="26" t="s"/>
       <x:c r="E18" s="26" t="s">
-        <x:v>43</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F18" s="26" t="s"/>
       <x:c r="G18" s="26" t="s"/>
       <x:c r="H18" s="26" t="s"/>
       <x:c r="I18" s="26" t="s"/>
       <x:c r="J18" s="26" t="n">
-        <x:v>70</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K18" s="26" t="n">
-        <x:v>70</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L18" s="26" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M18" s="26" t="n">
-        <x:v>2.3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N18" s="26">
         <x:f>J18+K18+L18+M18</x:f>
       </x:c>
       <x:c r="O18" s="26" t="n">
-        <x:v>0.16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P18" s="26" t="s"/>
     </x:row>
@@ -1786,7 +1885,7 @@
       <x:c r="C19" s="26" t="s"/>
       <x:c r="D19" s="26" t="s"/>
       <x:c r="E19" s="26" t="s">
-        <x:v>44</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="26" t="s"/>
       <x:c r="G19" s="26" t="s"/>
@@ -1817,7 +1916,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B20" s="26" t="s">
-        <x:v>45</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C20" s="26" t="s">
         <x:v>21</x:v>
@@ -1826,19 +1925,19 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E20" s="26" t="s">
-        <x:v>46</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F20" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G20" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H20" s="26">
-        <x:f>N20+N21+N21</x:f>
+        <x:f>N20+N20</x:f>
       </x:c>
       <x:c r="I20" s="26">
-        <x:f>O20+O21</x:f>
+        <x:f>O20</x:f>
       </x:c>
       <x:c r="J20" s="26" t="n">
         <x:v>50</x:v>
@@ -1861,25 +1960,41 @@
       <x:c r="P20" s="26" t="s"/>
     </x:row>
     <x:row r="21" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A21" s="26" t="s"/>
-      <x:c r="B21" s="26" t="s"/>
-      <x:c r="C21" s="26" t="s"/>
-      <x:c r="D21" s="26" t="s"/>
+      <x:c r="A21" s="26" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B21" s="26" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D21" s="26" t="s">
+        <x:v>62</x:v>
+      </x:c>
       <x:c r="E21" s="26" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F21" s="26" t="s"/>
-      <x:c r="G21" s="26" t="s"/>
-      <x:c r="H21" s="26" t="s"/>
-      <x:c r="I21" s="26" t="s"/>
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F21" s="26" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G21" s="26" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H21" s="26">
+        <x:f>N21+N21</x:f>
+      </x:c>
+      <x:c r="I21" s="26">
+        <x:f>O21</x:f>
+      </x:c>
       <x:c r="J21" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="K21" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L21" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M21" s="26" t="n">
         <x:v>0</x:v>
@@ -1888,31 +2003,31 @@
         <x:f>J21+K21+L21+M21</x:f>
       </x:c>
       <x:c r="O21" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>0.07</x:v>
       </x:c>
       <x:c r="P21" s="26" t="s"/>
     </x:row>
     <x:row r="22" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A22" s="26" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B22" s="26" t="s">
-        <x:v>48</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C22" s="26" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D22" s="26" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E22" s="26" t="s">
-        <x:v>50</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F22" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G22" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H22" s="26">
         <x:f>N22+N22</x:f>
@@ -1921,31 +2036,31 @@
         <x:f>O22</x:f>
       </x:c>
       <x:c r="J22" s="26" t="n">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="K22" s="26" t="n">
-        <x:v>20</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="L22" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M22" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N22" s="26">
         <x:f>J22+K22+L22+M22</x:f>
       </x:c>
       <x:c r="O22" s="26" t="n">
-        <x:v>0.07</x:v>
+        <x:v>0.13</x:v>
       </x:c>
       <x:c r="P22" s="26" t="s"/>
     </x:row>
     <x:row r="23" spans="1:27" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A23" s="26" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B23" s="26" t="s">
-        <x:v>51</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C23" s="26" t="s">
         <x:v>21</x:v>
@@ -1954,13 +2069,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E23" s="26" t="s">
-        <x:v>52</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F23" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G23" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H23" s="26">
         <x:f>N23+N23</x:f>
@@ -1969,31 +2084,31 @@
         <x:f>O23</x:f>
       </x:c>
       <x:c r="J23" s="26" t="n">
-        <x:v>56</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K23" s="26" t="n">
-        <x:v>56</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L23" s="26" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M23" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N23" s="26">
         <x:f>J23+K23+L23+M23</x:f>
       </x:c>
       <x:c r="O23" s="26" t="n">
-        <x:v>0.13</x:v>
+        <x:v>0.05</x:v>
       </x:c>
       <x:c r="P23" s="26" t="s"/>
     </x:row>
     <x:row r="24" spans="1:27" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A24" s="26" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B24" s="26" t="s">
-        <x:v>53</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C24" s="26" t="s">
         <x:v>21</x:v>
@@ -2002,13 +2117,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E24" s="26" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F24" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G24" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H24" s="26">
         <x:f>N24+N24</x:f>
@@ -2017,16 +2132,16 @@
         <x:f>O24</x:f>
       </x:c>
       <x:c r="J24" s="26" t="n">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K24" s="26" t="n">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L24" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M24" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N24" s="26">
         <x:f>J24+K24+L24+M24</x:f>
@@ -2038,43 +2153,43 @@
     </x:row>
     <x:row r="25" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A25" s="26" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B25" s="26" t="s">
-        <x:v>55</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C25" s="26" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D25" s="26" t="s">
-        <x:v>22</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E25" s="26" t="s">
-        <x:v>56</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F25" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G25" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H25" s="26">
-        <x:f>N25+N25</x:f>
+        <x:f>N25+N26+N27+N27</x:f>
       </x:c>
       <x:c r="I25" s="26">
-        <x:f>O25</x:f>
+        <x:f>O25+O26+O27</x:f>
       </x:c>
       <x:c r="J25" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K25" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L25" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M25" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N25" s="26">
         <x:f>J25+K25+L25+M25</x:f>
@@ -2085,50 +2200,34 @@
       <x:c r="P25" s="26" t="s"/>
     </x:row>
     <x:row r="26" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A26" s="26" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B26" s="26" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C26" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D26" s="26" t="s">
-        <x:v>38</x:v>
-      </x:c>
+      <x:c r="A26" s="26" t="s"/>
+      <x:c r="B26" s="26" t="s"/>
+      <x:c r="C26" s="26" t="s"/>
+      <x:c r="D26" s="26" t="s"/>
       <x:c r="E26" s="26" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F26" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G26" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H26" s="26">
-        <x:f>N26+N27+N28+N28</x:f>
-      </x:c>
-      <x:c r="I26" s="26">
-        <x:f>O26+O27+O28</x:f>
-      </x:c>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F26" s="26" t="s"/>
+      <x:c r="G26" s="26" t="s"/>
+      <x:c r="H26" s="26" t="s"/>
+      <x:c r="I26" s="26" t="s"/>
       <x:c r="J26" s="26" t="n">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K26" s="26" t="n">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L26" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M26" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N26" s="26">
         <x:f>J26+K26+L26+M26</x:f>
       </x:c>
       <x:c r="O26" s="26" t="n">
-        <x:v>0.05</x:v>
+        <x:v>0.09</x:v>
       </x:c>
       <x:c r="P26" s="26" t="s"/>
     </x:row>
@@ -2138,7 +2237,7 @@
       <x:c r="C27" s="26" t="s"/>
       <x:c r="D27" s="26" t="s"/>
       <x:c r="E27" s="26" t="s">
-        <x:v>59</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F27" s="26" t="s"/>
       <x:c r="G27" s="26" t="s"/>
@@ -2148,7 +2247,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="K27" s="26" t="n">
-        <x:v>40</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L27" s="26" t="n">
         <x:v>2</x:v>
@@ -2160,33 +2259,49 @@
         <x:f>J27+K27+L27+M27</x:f>
       </x:c>
       <x:c r="O27" s="26" t="n">
-        <x:v>0.09</x:v>
+        <x:v>0.07</x:v>
       </x:c>
       <x:c r="P27" s="26" t="s"/>
     </x:row>
     <x:row r="28" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A28" s="26" t="s"/>
-      <x:c r="B28" s="26" t="s"/>
-      <x:c r="C28" s="26" t="s"/>
-      <x:c r="D28" s="26" t="s"/>
+      <x:c r="A28" s="26" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B28" s="26" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C28" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D28" s="26" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="E28" s="26" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F28" s="26" t="s"/>
-      <x:c r="G28" s="26" t="s"/>
-      <x:c r="H28" s="26" t="s"/>
-      <x:c r="I28" s="26" t="s"/>
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F28" s="26" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G28" s="26" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H28" s="26">
+        <x:f>N28+N29+N30+N30</x:f>
+      </x:c>
+      <x:c r="I28" s="26">
+        <x:f>O28+O29+O30</x:f>
+      </x:c>
       <x:c r="J28" s="26" t="n">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K28" s="26" t="n">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L28" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M28" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N28" s="26">
         <x:f>J28+K28+L28+M28</x:f>
@@ -2197,50 +2312,34 @@
       <x:c r="P28" s="26" t="s"/>
     </x:row>
     <x:row r="29" spans="1:27" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A29" s="26" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B29" s="26" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C29" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D29" s="26" t="s">
-        <x:v>32</x:v>
-      </x:c>
+      <x:c r="A29" s="26" t="s"/>
+      <x:c r="B29" s="26" t="s"/>
+      <x:c r="C29" s="26" t="s"/>
+      <x:c r="D29" s="26" t="s"/>
       <x:c r="E29" s="26" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F29" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G29" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H29" s="26">
-        <x:f>N29+N30+N31+N31</x:f>
-      </x:c>
-      <x:c r="I29" s="26">
-        <x:f>O29+O30+O31</x:f>
-      </x:c>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F29" s="26" t="s"/>
+      <x:c r="G29" s="26" t="s"/>
+      <x:c r="H29" s="26" t="s"/>
+      <x:c r="I29" s="26" t="s"/>
       <x:c r="J29" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="K29" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="L29" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M29" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>4.2</x:v>
       </x:c>
       <x:c r="N29" s="26">
         <x:f>J29+K29+L29+M29</x:f>
       </x:c>
       <x:c r="O29" s="26" t="n">
-        <x:v>0.07</x:v>
+        <x:v>0.16</x:v>
       </x:c>
       <x:c r="P29" s="26" t="s"/>
     </x:row>
@@ -2250,85 +2349,101 @@
       <x:c r="C30" s="26" t="s"/>
       <x:c r="D30" s="26" t="s"/>
       <x:c r="E30" s="26" t="s">
-        <x:v>63</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F30" s="26" t="s"/>
       <x:c r="G30" s="26" t="s"/>
       <x:c r="H30" s="26" t="s"/>
       <x:c r="I30" s="26" t="s"/>
       <x:c r="J30" s="26" t="n">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K30" s="26" t="n">
-        <x:v>66</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L30" s="26" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M30" s="26" t="n">
-        <x:v>4.2</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N30" s="26">
         <x:f>J30+K30+L30+M30</x:f>
       </x:c>
       <x:c r="O30" s="26" t="n">
-        <x:v>0.16</x:v>
+        <x:v>0.05</x:v>
       </x:c>
       <x:c r="P30" s="26" t="s"/>
     </x:row>
     <x:row r="31" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A31" s="26" t="s"/>
-      <x:c r="B31" s="26" t="s"/>
-      <x:c r="C31" s="26" t="s"/>
-      <x:c r="D31" s="26" t="s"/>
+      <x:c r="A31" s="26" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B31" s="26" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D31" s="26" t="s">
+        <x:v>91</x:v>
+      </x:c>
       <x:c r="E31" s="26" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F31" s="26" t="s"/>
-      <x:c r="G31" s="26" t="s"/>
-      <x:c r="H31" s="26" t="s"/>
-      <x:c r="I31" s="26" t="s"/>
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F31" s="26" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G31" s="26" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H31" s="26">
+        <x:f>N31+N31</x:f>
+      </x:c>
+      <x:c r="I31" s="26">
+        <x:f>O31</x:f>
+      </x:c>
       <x:c r="J31" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K31" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L31" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M31" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N31" s="26">
         <x:f>J31+K31+L31+M31</x:f>
       </x:c>
       <x:c r="O31" s="26" t="n">
-        <x:v>0.05</x:v>
+        <x:v>0.04</x:v>
       </x:c>
       <x:c r="P31" s="26" t="s"/>
     </x:row>
     <x:row r="32" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A32" s="26" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B32" s="26" t="s">
-        <x:v>65</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C32" s="26" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D32" s="26" t="s">
-        <x:v>66</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E32" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F32" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G32" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H32" s="26">
         <x:f>N32+N32</x:f>
@@ -2337,7 +2452,7 @@
         <x:f>O32</x:f>
       </x:c>
       <x:c r="J32" s="26" t="n">
-        <x:v>18</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K32" s="26" t="n">
         <x:v>18</x:v>
@@ -2352,86 +2467,70 @@
         <x:f>J32+K32+L32+M32</x:f>
       </x:c>
       <x:c r="O32" s="26" t="n">
-        <x:v>0.04</x:v>
+        <x:v>0.06</x:v>
       </x:c>
       <x:c r="P32" s="26" t="s"/>
     </x:row>
     <x:row r="33" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A33" s="26" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B33" s="26" t="s">
-        <x:v>68</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C33" s="26" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D33" s="26" t="s">
-        <x:v>22</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F33" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G33" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H33" s="26">
-        <x:f>N33+N33</x:f>
+        <x:f>N33+N34+N35+N36+N37+N38+N38</x:f>
       </x:c>
       <x:c r="I33" s="26">
-        <x:f>O33</x:f>
+        <x:f>O33+O34+O35+O36+O37+O38</x:f>
       </x:c>
       <x:c r="J33" s="26" t="n">
-        <x:v>36</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="K33" s="26" t="n">
-        <x:v>18</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="L33" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M33" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>2.3</x:v>
       </x:c>
       <x:c r="N33" s="26">
         <x:f>J33+K33+L33+M33</x:f>
       </x:c>
       <x:c r="O33" s="26" t="n">
-        <x:v>0.06</x:v>
+        <x:v>0.16</x:v>
       </x:c>
       <x:c r="P33" s="26" t="s"/>
     </x:row>
     <x:row r="34" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A34" s="26" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B34" s="26" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C34" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D34" s="26" t="s">
-        <x:v>71</x:v>
-      </x:c>
+      <x:c r="A34" s="26" t="s"/>
+      <x:c r="B34" s="26" t="s"/>
+      <x:c r="C34" s="26" t="s"/>
+      <x:c r="D34" s="26" t="s"/>
       <x:c r="E34" s="26" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="F34" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G34" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H34" s="26">
-        <x:f>N34+N35+N36+N37+N38+N39+N40+N41+N41</x:f>
-      </x:c>
-      <x:c r="I34" s="26">
-        <x:f>O34+O35+O36+O37+O38+O39+O40+O41</x:f>
-      </x:c>
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F34" s="26" t="s"/>
+      <x:c r="G34" s="26" t="s"/>
+      <x:c r="H34" s="26" t="s"/>
+      <x:c r="I34" s="26" t="s"/>
       <x:c r="J34" s="26" t="n">
         <x:v>14</x:v>
       </x:c>
@@ -2458,29 +2557,29 @@
       <x:c r="C35" s="26" t="s"/>
       <x:c r="D35" s="26" t="s"/>
       <x:c r="E35" s="26" t="s">
-        <x:v>73</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F35" s="26" t="s"/>
       <x:c r="G35" s="26" t="s"/>
       <x:c r="H35" s="26" t="s"/>
       <x:c r="I35" s="26" t="s"/>
       <x:c r="J35" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K35" s="26" t="n">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L35" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M35" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N35" s="26">
         <x:f>J35+K35+L35+M35</x:f>
       </x:c>
       <x:c r="O35" s="26" t="n">
-        <x:v>0.04</x:v>
+        <x:v>0.07</x:v>
       </x:c>
       <x:c r="P35" s="26" t="s"/>
     </x:row>
@@ -2490,23 +2589,23 @@
       <x:c r="C36" s="26" t="s"/>
       <x:c r="D36" s="26" t="s"/>
       <x:c r="E36" s="26" t="s">
-        <x:v>74</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F36" s="26" t="s"/>
       <x:c r="G36" s="26" t="s"/>
       <x:c r="H36" s="26" t="s"/>
       <x:c r="I36" s="26" t="s"/>
       <x:c r="J36" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K36" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="L36" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M36" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>2.2</x:v>
       </x:c>
       <x:c r="N36" s="26">
         <x:f>J36+K36+L36+M36</x:f>
@@ -2522,29 +2621,29 @@
       <x:c r="C37" s="26" t="s"/>
       <x:c r="D37" s="26" t="s"/>
       <x:c r="E37" s="26" t="s">
-        <x:v>75</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F37" s="26" t="s"/>
       <x:c r="G37" s="26" t="s"/>
       <x:c r="H37" s="26" t="s"/>
       <x:c r="I37" s="26" t="s"/>
       <x:c r="J37" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K37" s="26" t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c r="L37" s="26" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M37" s="26" t="n">
-        <x:v>0.5</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N37" s="26">
         <x:f>J37+K37+L37+M37</x:f>
       </x:c>
       <x:c r="O37" s="26" t="n">
-        <x:v>0.07</x:v>
+        <x:v>0.05</x:v>
       </x:c>
       <x:c r="P37" s="26" t="s"/>
     </x:row>
@@ -2554,49 +2653,65 @@
       <x:c r="C38" s="26" t="s"/>
       <x:c r="D38" s="26" t="s"/>
       <x:c r="E38" s="26" t="s">
-        <x:v>76</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F38" s="26" t="s"/>
       <x:c r="G38" s="26" t="s"/>
       <x:c r="H38" s="26" t="s"/>
       <x:c r="I38" s="26" t="s"/>
       <x:c r="J38" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K38" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L38" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M38" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>0.5</x:v>
       </x:c>
       <x:c r="N38" s="26">
         <x:f>J38+K38+L38+M38</x:f>
       </x:c>
       <x:c r="O38" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>0.07</x:v>
       </x:c>
       <x:c r="P38" s="26" t="s"/>
     </x:row>
     <x:row r="39" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A39" s="26" t="s"/>
-      <x:c r="B39" s="26" t="s"/>
-      <x:c r="C39" s="26" t="s"/>
-      <x:c r="D39" s="26" t="s"/>
+      <x:c r="A39" s="26" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B39" s="26" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C39" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D39" s="26" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="E39" s="26" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="F39" s="26" t="s"/>
-      <x:c r="G39" s="26" t="s"/>
-      <x:c r="H39" s="26" t="s"/>
-      <x:c r="I39" s="26" t="s"/>
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="F39" s="26" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="G39" s="26" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H39" s="26">
+        <x:f>N39+N39</x:f>
+      </x:c>
+      <x:c r="I39" s="26">
+        <x:f>O39</x:f>
+      </x:c>
       <x:c r="J39" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K39" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L39" s="26" t="n">
         <x:v>2</x:v>
@@ -2608,30 +2723,46 @@
         <x:f>J39+K39+L39+M39</x:f>
       </x:c>
       <x:c r="O39" s="26" t="n">
+        <x:v>0.06</x:v>
+      </x:c>
+      <x:c r="P39" s="26" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A40" s="26" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B40" s="26" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C40" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D40" s="26" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E40" s="26" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="F40" s="26" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="G40" s="26" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H40" s="26">
+        <x:f>N40+N40</x:f>
+      </x:c>
+      <x:c r="I40" s="26">
+        <x:f>O40</x:f>
+      </x:c>
+      <x:c r="J40" s="26" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K40" s="26" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="L40" s="26" t="n">
         <x:v>0</x:v>
-      </x:c>
-      <x:c r="P39" s="26" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A40" s="26" t="s"/>
-      <x:c r="B40" s="26" t="s"/>
-      <x:c r="C40" s="26" t="s"/>
-      <x:c r="D40" s="26" t="s"/>
-      <x:c r="E40" s="26" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F40" s="26" t="s"/>
-      <x:c r="G40" s="26" t="s"/>
-      <x:c r="H40" s="26" t="s"/>
-      <x:c r="I40" s="26" t="s"/>
-      <x:c r="J40" s="26" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K40" s="26" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L40" s="26" t="n">
-        <x:v>2</x:v>
       </x:c>
       <x:c r="M40" s="26" t="n">
         <x:v>0.3</x:v>
@@ -2640,72 +2771,72 @@
         <x:f>J40+K40+L40+M40</x:f>
       </x:c>
       <x:c r="O40" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>0.04</x:v>
       </x:c>
       <x:c r="P40" s="26" t="s"/>
     </x:row>
     <x:row r="41" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A41" s="26" t="s"/>
-      <x:c r="B41" s="26" t="s"/>
-      <x:c r="C41" s="26" t="s"/>
-      <x:c r="D41" s="26" t="s"/>
+      <x:c r="A41" s="26" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B41" s="26" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C41" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D41" s="26" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="E41" s="26" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F41" s="26" t="s"/>
-      <x:c r="G41" s="26" t="s"/>
-      <x:c r="H41" s="26" t="s"/>
-      <x:c r="I41" s="26" t="s"/>
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="F41" s="26" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G41" s="26" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="H41" s="26">
+        <x:f>N41+N42+N42</x:f>
+      </x:c>
+      <x:c r="I41" s="26">
+        <x:f>O41+O42</x:f>
+      </x:c>
       <x:c r="J41" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K41" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L41" s="26" t="n">
-        <x:v>21.5</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M41" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>2.2</x:v>
       </x:c>
       <x:c r="N41" s="26">
         <x:f>J41+K41+L41+M41</x:f>
       </x:c>
       <x:c r="O41" s="26" t="n">
-        <x:v>0.02</x:v>
+        <x:v>0.1</x:v>
       </x:c>
       <x:c r="P41" s="26" t="s"/>
     </x:row>
     <x:row r="42" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A42" s="26" t="n">
+      <x:c r="A42" s="26" t="s"/>
+      <x:c r="B42" s="26" t="s"/>
+      <x:c r="C42" s="26" t="s"/>
+      <x:c r="D42" s="26" t="s"/>
+      <x:c r="E42" s="26" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F42" s="26" t="s"/>
+      <x:c r="G42" s="26" t="s"/>
+      <x:c r="H42" s="26" t="s"/>
+      <x:c r="I42" s="26" t="s"/>
+      <x:c r="J42" s="26" t="n">
         <x:v>18</x:v>
-      </x:c>
-      <x:c r="B42" s="26" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C42" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D42" s="26" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E42" s="26" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="F42" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G42" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H42" s="26">
-        <x:f>N42+N42</x:f>
-      </x:c>
-      <x:c r="I42" s="26">
-        <x:f>O42</x:f>
-      </x:c>
-      <x:c r="J42" s="26" t="n">
-        <x:v>36</x:v>
       </x:c>
       <x:c r="K42" s="26" t="n">
         <x:v>18</x:v>
@@ -2720,135 +2851,135 @@
         <x:f>J42+K42+L42+M42</x:f>
       </x:c>
       <x:c r="O42" s="26" t="n">
-        <x:v>0.06</x:v>
+        <x:v>0.04</x:v>
       </x:c>
       <x:c r="P42" s="26" t="s"/>
     </x:row>
     <x:row r="43" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A43" s="26" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B43" s="26" t="s">
-        <x:v>82</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C43" s="26" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D43" s="26" t="s">
-        <x:v>83</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E43" s="26" t="s">
-        <x:v>84</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F43" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G43" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H43" s="26">
-        <x:f>N43+N43</x:f>
+        <x:f>N43+N44+N44</x:f>
       </x:c>
       <x:c r="I43" s="26">
-        <x:f>O43</x:f>
+        <x:f>O43+O44</x:f>
       </x:c>
       <x:c r="J43" s="26" t="n">
-        <x:v>18</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K43" s="26" t="n">
-        <x:v>18</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L43" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M43" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N43" s="26">
         <x:f>J43+K43+L43+M43</x:f>
       </x:c>
       <x:c r="O43" s="26" t="n">
-        <x:v>0.04</x:v>
+        <x:v>0.12</x:v>
       </x:c>
       <x:c r="P43" s="26" t="s"/>
     </x:row>
     <x:row r="44" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A44" s="26" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B44" s="26" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C44" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D44" s="26" t="s">
-        <x:v>32</x:v>
-      </x:c>
+      <x:c r="A44" s="26" t="s"/>
+      <x:c r="B44" s="26" t="s"/>
+      <x:c r="C44" s="26" t="s"/>
+      <x:c r="D44" s="26" t="s"/>
       <x:c r="E44" s="26" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="F44" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G44" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H44" s="26">
-        <x:f>N44+N45+N46+N47+N47</x:f>
-      </x:c>
-      <x:c r="I44" s="26">
-        <x:f>O44+O45+O46+O47</x:f>
-      </x:c>
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="F44" s="26" t="s"/>
+      <x:c r="G44" s="26" t="s"/>
+      <x:c r="H44" s="26" t="s"/>
+      <x:c r="I44" s="26" t="s"/>
       <x:c r="J44" s="26" t="n">
-        <x:v>40</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K44" s="26" t="n">
-        <x:v>40</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L44" s="26" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M44" s="26" t="n">
-        <x:v>2.2</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N44" s="26">
         <x:f>J44+K44+L44+M44</x:f>
       </x:c>
       <x:c r="O44" s="26" t="n">
-        <x:v>0.1</x:v>
+        <x:v>0.02</x:v>
       </x:c>
       <x:c r="P44" s="26" t="s"/>
     </x:row>
     <x:row r="45" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A45" s="26" t="s"/>
-      <x:c r="B45" s="26" t="s"/>
-      <x:c r="C45" s="26" t="s"/>
-      <x:c r="D45" s="26" t="s"/>
+      <x:c r="A45" s="26" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B45" s="26" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C45" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D45" s="26" t="s">
+        <x:v>125</x:v>
+      </x:c>
       <x:c r="E45" s="26" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="F45" s="26" t="s"/>
-      <x:c r="G45" s="26" t="s"/>
-      <x:c r="H45" s="26" t="s"/>
-      <x:c r="I45" s="26" t="s"/>
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F45" s="26" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G45" s="26" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="H45" s="26">
+        <x:f>N45+N46+N46</x:f>
+      </x:c>
+      <x:c r="I45" s="26">
+        <x:f>O45+O46</x:f>
+      </x:c>
       <x:c r="J45" s="26" t="n">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K45" s="26" t="n">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L45" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M45" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>2.2</x:v>
       </x:c>
       <x:c r="N45" s="26">
         <x:f>J45+K45+L45+M45</x:f>
       </x:c>
       <x:c r="O45" s="26" t="n">
-        <x:v>0.04</x:v>
+        <x:v>0.07</x:v>
       </x:c>
       <x:c r="P45" s="26" t="s"/>
     </x:row>
@@ -2858,49 +2989,65 @@
       <x:c r="C46" s="26" t="s"/>
       <x:c r="D46" s="26" t="s"/>
       <x:c r="E46" s="26" t="s">
-        <x:v>88</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F46" s="26" t="s"/>
       <x:c r="G46" s="26" t="s"/>
       <x:c r="H46" s="26" t="s"/>
       <x:c r="I46" s="26" t="s"/>
       <x:c r="J46" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K46" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L46" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M46" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N46" s="26">
         <x:f>J46+K46+L46+M46</x:f>
       </x:c>
       <x:c r="O46" s="26" t="n">
-        <x:v>0.03</x:v>
+        <x:v>0.09</x:v>
       </x:c>
       <x:c r="P46" s="26" t="s"/>
     </x:row>
     <x:row r="47" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A47" s="26" t="s"/>
-      <x:c r="B47" s="26" t="s"/>
-      <x:c r="C47" s="26" t="s"/>
-      <x:c r="D47" s="26" t="s"/>
+      <x:c r="A47" s="26" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B47" s="26" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C47" s="26" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D47" s="26" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="E47" s="26" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F47" s="26" t="s"/>
-      <x:c r="G47" s="26" t="s"/>
-      <x:c r="H47" s="26" t="s"/>
-      <x:c r="I47" s="26" t="s"/>
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F47" s="26" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G47" s="26" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="H47" s="26">
+        <x:f>N47+N48+N49+N50+N51+N52+N53+N54+N55+N56+N57+N58+N59+N60+N61+N62+N63+N64+N65+N66+N67+N68+N69+N69</x:f>
+      </x:c>
+      <x:c r="I47" s="26">
+        <x:f>O47+O48+O49+O50+O51+O52+O53+O54+O55+O56+O57+O58+O59+O60+O61+O62+O63+O64+O65+O66+O67+O68+O69</x:f>
+      </x:c>
       <x:c r="J47" s="26" t="n">
-        <x:v>7</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K47" s="26" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L47" s="26" t="n">
         <x:v>0</x:v>
@@ -2917,38 +3064,22 @@
       <x:c r="P47" s="26" t="s"/>
     </x:row>
     <x:row r="48" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A48" s="26" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B48" s="26" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C48" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D48" s="26" t="s">
-        <x:v>32</x:v>
-      </x:c>
+      <x:c r="A48" s="26" t="s"/>
+      <x:c r="B48" s="26" t="s"/>
+      <x:c r="C48" s="26" t="s"/>
+      <x:c r="D48" s="26" t="s"/>
       <x:c r="E48" s="26" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="F48" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G48" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H48" s="26">
-        <x:f>N48+N49+N49</x:f>
-      </x:c>
-      <x:c r="I48" s="26">
-        <x:f>O48+O49</x:f>
-      </x:c>
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F48" s="26" t="s"/>
+      <x:c r="G48" s="26" t="s"/>
+      <x:c r="H48" s="26" t="s"/>
+      <x:c r="I48" s="26" t="s"/>
       <x:c r="J48" s="26" t="n">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K48" s="26" t="n">
-        <x:v>60</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L48" s="26" t="n">
         <x:v>2</x:v>
@@ -2960,7 +3091,7 @@
         <x:f>J48+K48+L48+M48</x:f>
       </x:c>
       <x:c r="O48" s="26" t="n">
-        <x:v>0.12</x:v>
+        <x:v>0.06</x:v>
       </x:c>
       <x:c r="P48" s="26" t="s"/>
     </x:row>
@@ -2970,77 +3101,61 @@
       <x:c r="C49" s="26" t="s"/>
       <x:c r="D49" s="26" t="s"/>
       <x:c r="E49" s="26" t="s">
-        <x:v>92</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F49" s="26" t="s"/>
       <x:c r="G49" s="26" t="s"/>
       <x:c r="H49" s="26" t="s"/>
       <x:c r="I49" s="26" t="s"/>
       <x:c r="J49" s="26" t="n">
-        <x:v>10</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K49" s="26" t="n">
-        <x:v>10</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="L49" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M49" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>2.2</x:v>
       </x:c>
       <x:c r="N49" s="26">
         <x:f>J49+K49+L49+M49</x:f>
       </x:c>
       <x:c r="O49" s="26" t="n">
-        <x:v>0.02</x:v>
+        <x:v>0.09</x:v>
       </x:c>
       <x:c r="P49" s="26" t="s"/>
     </x:row>
     <x:row r="50" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A50" s="26" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B50" s="26" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C50" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D50" s="26" t="s">
-        <x:v>94</x:v>
-      </x:c>
+      <x:c r="A50" s="26" t="s"/>
+      <x:c r="B50" s="26" t="s"/>
+      <x:c r="C50" s="26" t="s"/>
+      <x:c r="D50" s="26" t="s"/>
       <x:c r="E50" s="26" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="F50" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G50" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H50" s="26">
-        <x:f>N50+N51+N52+N52</x:f>
-      </x:c>
-      <x:c r="I50" s="26">
-        <x:f>O50+O51+O52</x:f>
-      </x:c>
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="F50" s="26" t="s"/>
+      <x:c r="G50" s="26" t="s"/>
+      <x:c r="H50" s="26" t="s"/>
+      <x:c r="I50" s="26" t="s"/>
       <x:c r="J50" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K50" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L50" s="26" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M50" s="26" t="n">
-        <x:v>2.2</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N50" s="26">
         <x:f>J50+K50+L50+M50</x:f>
       </x:c>
       <x:c r="O50" s="26" t="n">
-        <x:v>0.07</x:v>
+        <x:v>0.03</x:v>
       </x:c>
       <x:c r="P50" s="26" t="s"/>
     </x:row>
@@ -3050,29 +3165,29 @@
       <x:c r="C51" s="26" t="s"/>
       <x:c r="D51" s="26" t="s"/>
       <x:c r="E51" s="26" t="s">
-        <x:v>96</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F51" s="26" t="s"/>
       <x:c r="G51" s="26" t="s"/>
       <x:c r="H51" s="26" t="s"/>
       <x:c r="I51" s="26" t="s"/>
       <x:c r="J51" s="26" t="n">
-        <x:v>36</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K51" s="26" t="n">
-        <x:v>36</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L51" s="26" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M51" s="26" t="n">
-        <x:v>2.2</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N51" s="26">
         <x:f>J51+K51+L51+M51</x:f>
       </x:c>
       <x:c r="O51" s="26" t="n">
-        <x:v>0.09</x:v>
+        <x:v>0.05</x:v>
       </x:c>
       <x:c r="P51" s="26" t="s"/>
     </x:row>
@@ -3082,23 +3197,23 @@
       <x:c r="C52" s="26" t="s"/>
       <x:c r="D52" s="26" t="s"/>
       <x:c r="E52" s="26" t="s">
-        <x:v>97</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F52" s="26" t="s"/>
       <x:c r="G52" s="26" t="s"/>
       <x:c r="H52" s="26" t="s"/>
       <x:c r="I52" s="26" t="s"/>
       <x:c r="J52" s="26" t="n">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K52" s="26" t="n">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L52" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M52" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N52" s="26">
         <x:f>J52+K52+L52+M52</x:f>
@@ -3109,50 +3224,34 @@
       <x:c r="P52" s="26" t="s"/>
     </x:row>
     <x:row r="53" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A53" s="26" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B53" s="26" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C53" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D53" s="26" t="s">
-        <x:v>32</x:v>
-      </x:c>
+      <x:c r="A53" s="26" t="s"/>
+      <x:c r="B53" s="26" t="s"/>
+      <x:c r="C53" s="26" t="s"/>
+      <x:c r="D53" s="26" t="s"/>
       <x:c r="E53" s="26" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F53" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G53" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H53" s="26">
-        <x:f>N53+N54+N54</x:f>
-      </x:c>
-      <x:c r="I53" s="26">
-        <x:f>O53+O54</x:f>
-      </x:c>
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F53" s="26" t="s"/>
+      <x:c r="G53" s="26" t="s"/>
+      <x:c r="H53" s="26" t="s"/>
+      <x:c r="I53" s="26" t="s"/>
       <x:c r="J53" s="26" t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c r="K53" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L53" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M53" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N53" s="26">
         <x:f>J53+K53+L53+M53</x:f>
       </x:c>
       <x:c r="O53" s="26" t="n">
-        <x:v>0.07</x:v>
+        <x:v>0.05</x:v>
       </x:c>
       <x:c r="P53" s="26" t="s"/>
     </x:row>
@@ -3162,77 +3261,61 @@
       <x:c r="C54" s="26" t="s"/>
       <x:c r="D54" s="26" t="s"/>
       <x:c r="E54" s="26" t="s">
-        <x:v>100</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F54" s="26" t="s"/>
       <x:c r="G54" s="26" t="s"/>
       <x:c r="H54" s="26" t="s"/>
       <x:c r="I54" s="26" t="s"/>
       <x:c r="J54" s="26" t="n">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K54" s="26" t="n">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L54" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M54" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N54" s="26">
         <x:f>J54+K54+L54+M54</x:f>
       </x:c>
       <x:c r="O54" s="26" t="n">
-        <x:v>0.06</x:v>
+        <x:v>0.05</x:v>
       </x:c>
       <x:c r="P54" s="26" t="s"/>
     </x:row>
     <x:row r="55" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A55" s="26" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B55" s="26" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C55" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D55" s="26" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="A55" s="26" t="s"/>
+      <x:c r="B55" s="26" t="s"/>
+      <x:c r="C55" s="26" t="s"/>
+      <x:c r="D55" s="26" t="s"/>
       <x:c r="E55" s="26" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="F55" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G55" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H55" s="26">
-        <x:f>N55+N56+N56</x:f>
-      </x:c>
-      <x:c r="I55" s="26">
-        <x:f>O55+O56</x:f>
-      </x:c>
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="F55" s="26" t="s"/>
+      <x:c r="G55" s="26" t="s"/>
+      <x:c r="H55" s="26" t="s"/>
+      <x:c r="I55" s="26" t="s"/>
       <x:c r="J55" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K55" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L55" s="26" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M55" s="26" t="n">
-        <x:v>2.2</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N55" s="26">
         <x:f>J55+K55+L55+M55</x:f>
       </x:c>
       <x:c r="O55" s="26" t="n">
-        <x:v>0.01</x:v>
+        <x:v>0.03</x:v>
       </x:c>
       <x:c r="P55" s="26" t="s"/>
     </x:row>
@@ -3242,77 +3325,61 @@
       <x:c r="C56" s="26" t="s"/>
       <x:c r="D56" s="26" t="s"/>
       <x:c r="E56" s="26" t="s">
-        <x:v>102</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F56" s="26" t="s"/>
       <x:c r="G56" s="26" t="s"/>
       <x:c r="H56" s="26" t="s"/>
       <x:c r="I56" s="26" t="s"/>
       <x:c r="J56" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K56" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L56" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M56" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N56" s="26">
         <x:f>J56+K56+L56+M56</x:f>
       </x:c>
       <x:c r="O56" s="26" t="n">
-        <x:v>0.05</x:v>
+        <x:v>0.06</x:v>
       </x:c>
       <x:c r="P56" s="26" t="s"/>
     </x:row>
     <x:row r="57" spans="1:27" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A57" s="26" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B57" s="26" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C57" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D57" s="26" t="s">
-        <x:v>32</x:v>
-      </x:c>
+      <x:c r="A57" s="26" t="s"/>
+      <x:c r="B57" s="26" t="s"/>
+      <x:c r="C57" s="26" t="s"/>
+      <x:c r="D57" s="26" t="s"/>
       <x:c r="E57" s="26" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="F57" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G57" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H57" s="26">
-        <x:f>N57+N58+N59+N60+N61+N62+N63+N64+N64</x:f>
-      </x:c>
-      <x:c r="I57" s="26">
-        <x:f>O57+O58+O59+O60+O61+O62+O63+O64</x:f>
-      </x:c>
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="F57" s="26" t="s"/>
+      <x:c r="G57" s="26" t="s"/>
+      <x:c r="H57" s="26" t="s"/>
+      <x:c r="I57" s="26" t="s"/>
       <x:c r="J57" s="26" t="n">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K57" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L57" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M57" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N57" s="26">
         <x:f>J57+K57+L57+M57</x:f>
       </x:c>
       <x:c r="O57" s="26" t="n">
-        <x:v>0.02</x:v>
+        <x:v>0.05</x:v>
       </x:c>
       <x:c r="P57" s="26" t="s"/>
     </x:row>
@@ -3322,29 +3389,29 @@
       <x:c r="C58" s="26" t="s"/>
       <x:c r="D58" s="26" t="s"/>
       <x:c r="E58" s="26" t="s">
-        <x:v>104</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F58" s="26" t="s"/>
       <x:c r="G58" s="26" t="s"/>
       <x:c r="H58" s="26" t="s"/>
       <x:c r="I58" s="26" t="s"/>
       <x:c r="J58" s="26" t="n">
-        <x:v>36</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K58" s="26" t="n">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L58" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M58" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N58" s="26">
         <x:f>J58+K58+L58+M58</x:f>
       </x:c>
       <x:c r="O58" s="26" t="n">
-        <x:v>0.06</x:v>
+        <x:v>0.05</x:v>
       </x:c>
       <x:c r="P58" s="26" t="s"/>
     </x:row>
@@ -3354,7 +3421,7 @@
       <x:c r="C59" s="26" t="s"/>
       <x:c r="D59" s="26" t="s"/>
       <x:c r="E59" s="26" t="s">
-        <x:v>105</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F59" s="26" t="s"/>
       <x:c r="G59" s="26" t="s"/>
@@ -3364,19 +3431,19 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="K59" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L59" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M59" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>2.2</x:v>
       </x:c>
       <x:c r="N59" s="26">
         <x:f>J59+K59+L59+M59</x:f>
       </x:c>
       <x:c r="O59" s="26" t="n">
-        <x:v>0.05</x:v>
+        <x:v>0.07</x:v>
       </x:c>
       <x:c r="P59" s="26" t="s"/>
     </x:row>
@@ -3386,7 +3453,7 @@
       <x:c r="C60" s="26" t="s"/>
       <x:c r="D60" s="26" t="s"/>
       <x:c r="E60" s="26" t="s">
-        <x:v>106</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F60" s="26" t="s"/>
       <x:c r="G60" s="26" t="s"/>
@@ -3402,7 +3469,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M60" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N60" s="26">
         <x:f>J60+K60+L60+M60</x:f>
@@ -3418,17 +3485,17 @@
       <x:c r="C61" s="26" t="s"/>
       <x:c r="D61" s="26" t="s"/>
       <x:c r="E61" s="26" t="s">
-        <x:v>107</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F61" s="26" t="s"/>
       <x:c r="G61" s="26" t="s"/>
       <x:c r="H61" s="26" t="s"/>
       <x:c r="I61" s="26" t="s"/>
       <x:c r="J61" s="26" t="n">
-        <x:v>34</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K61" s="26" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L61" s="26" t="n">
         <x:v>2</x:v>
@@ -3440,7 +3507,7 @@
         <x:f>J61+K61+L61+M61</x:f>
       </x:c>
       <x:c r="O61" s="26" t="n">
-        <x:v>0.05</x:v>
+        <x:v>0.03</x:v>
       </x:c>
       <x:c r="P61" s="26" t="s"/>
     </x:row>
@@ -3450,7 +3517,7 @@
       <x:c r="C62" s="26" t="s"/>
       <x:c r="D62" s="26" t="s"/>
       <x:c r="E62" s="26" t="s">
-        <x:v>108</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F62" s="26" t="s"/>
       <x:c r="G62" s="26" t="s"/>
@@ -3482,29 +3549,29 @@
       <x:c r="C63" s="26" t="s"/>
       <x:c r="D63" s="26" t="s"/>
       <x:c r="E63" s="26" t="s">
-        <x:v>109</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F63" s="26" t="s"/>
       <x:c r="G63" s="26" t="s"/>
       <x:c r="H63" s="26" t="s"/>
       <x:c r="I63" s="26" t="s"/>
       <x:c r="J63" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K63" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L63" s="26" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M63" s="26" t="n">
-        <x:v>2.2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N63" s="26">
         <x:f>J63+K63+L63+M63</x:f>
       </x:c>
       <x:c r="O63" s="26" t="n">
-        <x:v>0.07</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P63" s="26" t="s"/>
     </x:row>
@@ -3514,113 +3581,81 @@
       <x:c r="C64" s="26" t="s"/>
       <x:c r="D64" s="26" t="s"/>
       <x:c r="E64" s="26" t="s">
-        <x:v>110</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F64" s="26" t="s"/>
       <x:c r="G64" s="26" t="s"/>
       <x:c r="H64" s="26" t="s"/>
       <x:c r="I64" s="26" t="s"/>
       <x:c r="J64" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K64" s="26" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L64" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M64" s="26" t="n">
-        <x:v>0</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N64" s="26">
         <x:f>J64+K64+L64+M64</x:f>
       </x:c>
       <x:c r="O64" s="26" t="n">
-        <x:v>0.01</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P64" s="26" t="s"/>
     </x:row>
     <x:row r="65" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A65" s="26" t="n">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B65" s="26" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="C65" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D65" s="26" t="s">
-        <x:v>112</x:v>
-      </x:c>
+      <x:c r="A65" s="26" t="s"/>
+      <x:c r="B65" s="26" t="s"/>
+      <x:c r="C65" s="26" t="s"/>
+      <x:c r="D65" s="26" t="s"/>
       <x:c r="E65" s="26" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="F65" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G65" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H65" s="26">
-        <x:f>N65+N65</x:f>
-      </x:c>
-      <x:c r="I65" s="26">
-        <x:f>O65</x:f>
-      </x:c>
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="F65" s="26" t="s"/>
+      <x:c r="G65" s="26" t="s"/>
+      <x:c r="H65" s="26" t="s"/>
+      <x:c r="I65" s="26" t="s"/>
       <x:c r="J65" s="26" t="n">
-        <x:v>40</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K65" s="26" t="n">
-        <x:v>40</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L65" s="26" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="M65" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="N65" s="26">
         <x:f>J65+K65+L65+M65</x:f>
       </x:c>
       <x:c r="O65" s="26" t="n">
-        <x:v>0.09</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P65" s="26" t="s"/>
     </x:row>
     <x:row r="66" spans="1:27" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A66" s="26" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B66" s="26" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C66" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D66" s="26" t="s">
-        <x:v>115</x:v>
-      </x:c>
+      <x:c r="A66" s="26" t="s"/>
+      <x:c r="B66" s="26" t="s"/>
+      <x:c r="C66" s="26" t="s"/>
+      <x:c r="D66" s="26" t="s"/>
       <x:c r="E66" s="26" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F66" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G66" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H66" s="26">
-        <x:f>N66+N67+N67</x:f>
-      </x:c>
-      <x:c r="I66" s="26">
-        <x:f>O66+O67</x:f>
-      </x:c>
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="F66" s="26" t="s"/>
+      <x:c r="G66" s="26" t="s"/>
+      <x:c r="H66" s="26" t="s"/>
+      <x:c r="I66" s="26" t="s"/>
       <x:c r="J66" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K66" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L66" s="26" t="n">
         <x:v>2</x:v>
@@ -3632,7 +3667,7 @@
         <x:f>J66+K66+L66+M66</x:f>
       </x:c>
       <x:c r="O66" s="26" t="n">
-        <x:v>0.03</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P66" s="26" t="s"/>
     </x:row>
@@ -3642,20 +3677,20 @@
       <x:c r="C67" s="26" t="s"/>
       <x:c r="D67" s="26" t="s"/>
       <x:c r="E67" s="26" t="s">
-        <x:v>117</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F67" s="26" t="s"/>
       <x:c r="G67" s="26" t="s"/>
       <x:c r="H67" s="26" t="s"/>
       <x:c r="I67" s="26" t="s"/>
       <x:c r="J67" s="26" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K67" s="26" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L67" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>21.5</x:v>
       </x:c>
       <x:c r="M67" s="26" t="n">
         <x:v>0.3</x:v>
@@ -3664,55 +3699,39 @@
         <x:f>J67+K67+L67+M67</x:f>
       </x:c>
       <x:c r="O67" s="26" t="n">
-        <x:v>0.05</x:v>
+        <x:v>0.02</x:v>
       </x:c>
       <x:c r="P67" s="26" t="s"/>
     </x:row>
     <x:row r="68" spans="1:27" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A68" s="26" t="n">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B68" s="26" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="C68" s="26" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D68" s="26" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="A68" s="26" t="s"/>
+      <x:c r="B68" s="26" t="s"/>
+      <x:c r="C68" s="26" t="s"/>
+      <x:c r="D68" s="26" t="s"/>
       <x:c r="E68" s="26" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F68" s="26" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G68" s="26" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H68" s="26">
-        <x:f>N68+N69+N69</x:f>
-      </x:c>
-      <x:c r="I68" s="26">
-        <x:f>O68+O69</x:f>
-      </x:c>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="F68" s="26" t="s"/>
+      <x:c r="G68" s="26" t="s"/>
+      <x:c r="H68" s="26" t="s"/>
+      <x:c r="I68" s="26" t="s"/>
       <x:c r="J68" s="26" t="n">
-        <x:v>30</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K68" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L68" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M68" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N68" s="26">
         <x:f>J68+K68+L68+M68</x:f>
       </x:c>
       <x:c r="O68" s="26" t="n">
-        <x:v>0.05</x:v>
+        <x:v>0.01</x:v>
       </x:c>
       <x:c r="P68" s="26" t="s"/>
     </x:row>
@@ -3722,29 +3741,29 @@
       <x:c r="C69" s="26" t="s"/>
       <x:c r="D69" s="26" t="s"/>
       <x:c r="E69" s="26" t="s">
-        <x:v>120</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F69" s="26" t="s"/>
       <x:c r="G69" s="26" t="s"/>
       <x:c r="H69" s="26" t="s"/>
       <x:c r="I69" s="26" t="s"/>
       <x:c r="J69" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K69" s="26" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L69" s="26" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M69" s="26" t="n">
-        <x:v>0.3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N69" s="26">
         <x:f>J69+K69+L69+M69</x:f>
       </x:c>
       <x:c r="O69" s="26" t="n">
-        <x:v>0.03</x:v>
+        <x:v>0.02</x:v>
       </x:c>
       <x:c r="P69" s="26" t="s"/>
     </x:row>
@@ -3768,10 +3787,10 @@
     </x:row>
     <x:row r="71" spans="1:27" customFormat="1" ht="204.75" customHeight="1">
       <x:c r="A71" s="4" t="s">
-        <x:v>121</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B71" s="28" t="s">
-        <x:v>122</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C71" s="6" t="s"/>
       <x:c r="D71" s="7" t="s"/>
@@ -3780,7 +3799,7 @@
       <x:c r="G71" s="7" t="s"/>
       <x:c r="H71" s="7" t="s"/>
       <x:c r="I71" s="13">
-        <x:f>I9+I10+I11+I12+I14+I15+I16+I20+I22+I23+I24+I25+I26+I29+I32+I33+I34+I42+I43+I44+I48+I50+I53+I55+I57+I65+I66+I68</x:f>
+        <x:f>I9+I10+I11+I12+I14+I15+I16+I20+I21+I22+I23+I24+I25+I28+I31+I32+I33+I39+I40+I41+I43+I45+I47</x:f>
       </x:c>
       <x:c r="J71" s="6" t="s"/>
       <x:c r="K71" s="6" t="s"/>
@@ -3796,18 +3815,18 @@
     <x:row r="74" spans="1:27" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A74" s="1" t="s"/>
       <x:c r="B74" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C74" s="9" t="s">
-        <x:v>124</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D74" s="9" t="s"/>
       <x:c r="E74" s="9" t="s"/>
       <x:c r="F74" s="9" t="s">
-        <x:v>125</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G74" s="9" t="s">
-        <x:v>126</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H74" s="9" t="s"/>
       <x:c r="I74" s="9" t="s"/>
@@ -3821,69 +3840,69 @@
     <x:row r="75" spans="1:27" customFormat="1" ht="140" customHeight="1">
       <x:c r="A75" s="1" t="s"/>
       <x:c r="B75" s="30" t="s">
-        <x:v>127</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C75" s="31" t="s">
-        <x:v>128</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D75" s="30" t="s"/>
       <x:c r="E75" s="30" t="s"/>
       <x:c r="F75" s="30" t="s">
-        <x:v>129</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G75" s="32" t="n">
-        <x:v>97</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H75" s="30" t="s"/>
       <x:c r="I75" s="30" t="s"/>
       <x:c r="J75" s="30">
-        <x:f>I9+I10+I11+I12+I15+I16+I20+I22+I23+I25+I26+I29+I33+I34+I42+I43+I44+I48+I50+I53+I55+I57+I65+I66+I68</x:f>
+        <x:f>I9+I10+I11+I12+I14+I15+I20+I22+I23+I25+I28+I31+I32+I33+I39+I40+I41+I43+I45+I47</x:f>
       </x:c>
       <x:c r="P75" s="0" t="s"/>
     </x:row>
     <x:row r="76" spans="1:27" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A76" s="1" t="s"/>
       <x:c r="B76" s="30" t="s">
-        <x:v>130</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C76" s="31" t="s">
-        <x:v>131</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D76" s="30" t="s"/>
       <x:c r="E76" s="30" t="s"/>
       <x:c r="F76" s="30" t="s">
-        <x:v>132</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G76" s="32" t="n">
-        <x:v>65</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H76" s="30" t="s"/>
       <x:c r="I76" s="30" t="s"/>
       <x:c r="J76" s="30">
-        <x:f>I10+I11+I12+I14+I15+I22+I26+I29+I32+I34+I42+I43+I44+I48+I53+I55+I57</x:f>
+        <x:f>I10+I11+I12+I14+I15+I21+I25+I28+I31+I33+I39+I40+I41+I43+I47</x:f>
       </x:c>
       <x:c r="P76" s="0" t="s"/>
     </x:row>
     <x:row r="77" spans="1:27" customFormat="1" ht="140" customHeight="1">
       <x:c r="A77" s="1" t="s"/>
       <x:c r="B77" s="30" t="s">
-        <x:v>133</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C77" s="31" t="s">
-        <x:v>134</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D77" s="30" t="s"/>
       <x:c r="E77" s="30" t="s"/>
       <x:c r="F77" s="30" t="s">
-        <x:v>135</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G77" s="32" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H77" s="30" t="s"/>
       <x:c r="I77" s="30" t="s"/>
       <x:c r="J77" s="30">
-        <x:f>I29+I50+I66</x:f>
+        <x:f>I28</x:f>
       </x:c>
       <x:c r="P77" s="0" t="s"/>
     </x:row>
@@ -4042,7 +4061,7 @@
     <x:row r="153" spans="1:27" customFormat="1" ht="97.5" customHeight="1"/>
   </x:sheetData>
   <x:autoFilter ref="A6:P71"/>
-  <x:mergeCells count="133">
+  <x:mergeCells count="93">
     <x:mergeCell ref="A1:O1"/>
     <x:mergeCell ref="A2:O2"/>
     <x:mergeCell ref="A3:O3"/>
@@ -4075,102 +4094,62 @@
     <x:mergeCell ref="G16:G19"/>
     <x:mergeCell ref="H16:H19"/>
     <x:mergeCell ref="I16:I19"/>
-    <x:mergeCell ref="A20:A21"/>
-    <x:mergeCell ref="B20:B21"/>
-    <x:mergeCell ref="C20:C21"/>
-    <x:mergeCell ref="D20:D21"/>
-    <x:mergeCell ref="F20:F21"/>
-    <x:mergeCell ref="G20:G21"/>
-    <x:mergeCell ref="H20:H21"/>
-    <x:mergeCell ref="I20:I21"/>
-    <x:mergeCell ref="A26:A28"/>
-    <x:mergeCell ref="B26:B28"/>
-    <x:mergeCell ref="C26:C28"/>
-    <x:mergeCell ref="D26:D28"/>
-    <x:mergeCell ref="F26:F28"/>
-    <x:mergeCell ref="G26:G28"/>
-    <x:mergeCell ref="H26:H28"/>
-    <x:mergeCell ref="I26:I28"/>
-    <x:mergeCell ref="A29:A31"/>
-    <x:mergeCell ref="B29:B31"/>
-    <x:mergeCell ref="C29:C31"/>
-    <x:mergeCell ref="D29:D31"/>
-    <x:mergeCell ref="F29:F31"/>
-    <x:mergeCell ref="G29:G31"/>
-    <x:mergeCell ref="H29:H31"/>
-    <x:mergeCell ref="I29:I31"/>
-    <x:mergeCell ref="A34:A41"/>
-    <x:mergeCell ref="B34:B41"/>
-    <x:mergeCell ref="C34:C41"/>
-    <x:mergeCell ref="D34:D41"/>
-    <x:mergeCell ref="F34:F41"/>
-    <x:mergeCell ref="G34:G41"/>
-    <x:mergeCell ref="H34:H41"/>
-    <x:mergeCell ref="I34:I41"/>
-    <x:mergeCell ref="A44:A47"/>
-    <x:mergeCell ref="B44:B47"/>
-    <x:mergeCell ref="C44:C47"/>
-    <x:mergeCell ref="D44:D47"/>
-    <x:mergeCell ref="F44:F47"/>
-    <x:mergeCell ref="G44:G47"/>
-    <x:mergeCell ref="H44:H47"/>
-    <x:mergeCell ref="I44:I47"/>
-    <x:mergeCell ref="A48:A49"/>
-    <x:mergeCell ref="B48:B49"/>
-    <x:mergeCell ref="C48:C49"/>
-    <x:mergeCell ref="D48:D49"/>
-    <x:mergeCell ref="F48:F49"/>
-    <x:mergeCell ref="G48:G49"/>
-    <x:mergeCell ref="H48:H49"/>
-    <x:mergeCell ref="I48:I49"/>
-    <x:mergeCell ref="A50:A52"/>
-    <x:mergeCell ref="B50:B52"/>
-    <x:mergeCell ref="C50:C52"/>
-    <x:mergeCell ref="D50:D52"/>
-    <x:mergeCell ref="F50:F52"/>
-    <x:mergeCell ref="G50:G52"/>
-    <x:mergeCell ref="H50:H52"/>
-    <x:mergeCell ref="I50:I52"/>
-    <x:mergeCell ref="A53:A54"/>
-    <x:mergeCell ref="B53:B54"/>
-    <x:mergeCell ref="C53:C54"/>
-    <x:mergeCell ref="D53:D54"/>
-    <x:mergeCell ref="F53:F54"/>
-    <x:mergeCell ref="G53:G54"/>
-    <x:mergeCell ref="H53:H54"/>
-    <x:mergeCell ref="I53:I54"/>
-    <x:mergeCell ref="A55:A56"/>
-    <x:mergeCell ref="B55:B56"/>
-    <x:mergeCell ref="C55:C56"/>
-    <x:mergeCell ref="D55:D56"/>
-    <x:mergeCell ref="F55:F56"/>
-    <x:mergeCell ref="G55:G56"/>
-    <x:mergeCell ref="H55:H56"/>
-    <x:mergeCell ref="I55:I56"/>
-    <x:mergeCell ref="A57:A64"/>
-    <x:mergeCell ref="B57:B64"/>
-    <x:mergeCell ref="C57:C64"/>
-    <x:mergeCell ref="D57:D64"/>
-    <x:mergeCell ref="F57:F64"/>
-    <x:mergeCell ref="G57:G64"/>
-    <x:mergeCell ref="H57:H64"/>
-    <x:mergeCell ref="I57:I64"/>
-    <x:mergeCell ref="A66:A67"/>
-    <x:mergeCell ref="B66:B67"/>
-    <x:mergeCell ref="C66:C67"/>
-    <x:mergeCell ref="D66:D67"/>
-    <x:mergeCell ref="F66:F67"/>
-    <x:mergeCell ref="G66:G67"/>
-    <x:mergeCell ref="H66:H67"/>
-    <x:mergeCell ref="I66:I67"/>
-    <x:mergeCell ref="A68:A69"/>
-    <x:mergeCell ref="B68:B69"/>
-    <x:mergeCell ref="C68:C69"/>
-    <x:mergeCell ref="D68:D69"/>
-    <x:mergeCell ref="F68:F69"/>
-    <x:mergeCell ref="G68:G69"/>
-    <x:mergeCell ref="H68:H69"/>
-    <x:mergeCell ref="I68:I69"/>
+    <x:mergeCell ref="A25:A27"/>
+    <x:mergeCell ref="B25:B27"/>
+    <x:mergeCell ref="C25:C27"/>
+    <x:mergeCell ref="D25:D27"/>
+    <x:mergeCell ref="F25:F27"/>
+    <x:mergeCell ref="G25:G27"/>
+    <x:mergeCell ref="H25:H27"/>
+    <x:mergeCell ref="I25:I27"/>
+    <x:mergeCell ref="A28:A30"/>
+    <x:mergeCell ref="B28:B30"/>
+    <x:mergeCell ref="C28:C30"/>
+    <x:mergeCell ref="D28:D30"/>
+    <x:mergeCell ref="F28:F30"/>
+    <x:mergeCell ref="G28:G30"/>
+    <x:mergeCell ref="H28:H30"/>
+    <x:mergeCell ref="I28:I30"/>
+    <x:mergeCell ref="A33:A38"/>
+    <x:mergeCell ref="B33:B38"/>
+    <x:mergeCell ref="C33:C38"/>
+    <x:mergeCell ref="D33:D38"/>
+    <x:mergeCell ref="F33:F38"/>
+    <x:mergeCell ref="G33:G38"/>
+    <x:mergeCell ref="H33:H38"/>
+    <x:mergeCell ref="I33:I38"/>
+    <x:mergeCell ref="A41:A42"/>
+    <x:mergeCell ref="B41:B42"/>
+    <x:mergeCell ref="C41:C42"/>
+    <x:mergeCell ref="D41:D42"/>
+    <x:mergeCell ref="F41:F42"/>
+    <x:mergeCell ref="G41:G42"/>
+    <x:mergeCell ref="H41:H42"/>
+    <x:mergeCell ref="I41:I42"/>
+    <x:mergeCell ref="A43:A44"/>
+    <x:mergeCell ref="B43:B44"/>
+    <x:mergeCell ref="C43:C44"/>
+    <x:mergeCell ref="D43:D44"/>
+    <x:mergeCell ref="F43:F44"/>
+    <x:mergeCell ref="G43:G44"/>
+    <x:mergeCell ref="H43:H44"/>
+    <x:mergeCell ref="I43:I44"/>
+    <x:mergeCell ref="A45:A46"/>
+    <x:mergeCell ref="B45:B46"/>
+    <x:mergeCell ref="C45:C46"/>
+    <x:mergeCell ref="D45:D46"/>
+    <x:mergeCell ref="F45:F46"/>
+    <x:mergeCell ref="G45:G46"/>
+    <x:mergeCell ref="H45:H46"/>
+    <x:mergeCell ref="I45:I46"/>
+    <x:mergeCell ref="A47:A69"/>
+    <x:mergeCell ref="B47:B69"/>
+    <x:mergeCell ref="C47:C69"/>
+    <x:mergeCell ref="D47:D69"/>
+    <x:mergeCell ref="F47:F69"/>
+    <x:mergeCell ref="G47:G69"/>
+    <x:mergeCell ref="H47:H69"/>
+    <x:mergeCell ref="I47:I69"/>
     <x:mergeCell ref="C74:E74"/>
     <x:mergeCell ref="G74:J74"/>
     <x:mergeCell ref="C75:E75"/>
@@ -4253,7 +4232,7 @@
     </x:row>
     <x:row r="3" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A3" s="25" t="s">
-        <x:v>136</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B3" s="25" t="s"/>
       <x:c r="C3" s="25" t="s"/>
@@ -4272,7 +4251,7 @@
     </x:row>
     <x:row r="4" spans="1:27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="25" t="s">
-        <x:v>137</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B4" s="25" t="s"/>
       <x:c r="C4" s="25" t="s"/>
@@ -4297,7 +4276,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
         <x:v>7</x:v>
@@ -4403,10 +4382,10 @@
     </x:row>
     <x:row r="10" spans="1:27" customFormat="1" ht="204.75" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A10" s="4" t="s">
-        <x:v>121</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B10" s="28" t="s">
-        <x:v>122</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s"/>
       <x:c r="D10" s="7" t="s"/>
@@ -4415,7 +4394,7 @@
       <x:c r="G10" s="7" t="s"/>
       <x:c r="H10" s="7" t="s"/>
       <x:c r="I10" s="13" t="s">
-        <x:v>139</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="J10" s="6" t="s"/>
       <x:c r="K10" s="6" t="s"/>
@@ -4431,18 +4410,18 @@
     <x:row r="13" spans="1:27" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A13" s="1" t="s"/>
       <x:c r="B13" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C13" s="9" t="s">
-        <x:v>124</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D13" s="9" t="s"/>
       <x:c r="E13" s="9" t="s"/>
       <x:c r="F13" s="9" t="s">
-        <x:v>125</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G13" s="9" t="s">
-        <x:v>126</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H13" s="9" t="s"/>
       <x:c r="I13" s="9" t="s"/>
